--- a/lotion.xlsx
+++ b/lotion.xlsx
@@ -397,24 +397,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1103"/>
+  <dimension ref="A1:B1102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Existing Data</v>
+        <v/>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v/>
+        <v>Data</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>New Data</v>
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v>06285119000446;2212269986100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="4">
@@ -422,7 +425,7 @@
         <v/>
       </c>
       <c r="B4" t="str">
-        <v>06285119000446;2212269986100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269998100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="5">
@@ -430,7 +433,7 @@
         <v/>
       </c>
       <c r="B5" t="str">
-        <v>06285119000446;2212269998100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612196100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="6">
@@ -438,7 +441,7 @@
         <v/>
       </c>
       <c r="B6" t="str">
-        <v>06285119000446;22122612196100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610010100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="7">
@@ -446,28 +449,28 @@
         <v/>
       </c>
       <c r="B7" t="str">
-        <v>06285119000446;22122610010100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610096100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <v/>
       </c>
-      <c r="B8" t="str">
-        <v>06285119000446;22122610096100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
         <v/>
       </c>
+      <c r="B9" t="str">
+        <v>06285119000446;2212269979100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <v/>
       </c>
       <c r="B10" t="str">
-        <v>06285119000446;2212269979100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269942100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +478,7 @@
         <v/>
       </c>
       <c r="B11" t="str">
-        <v>06285119000446;2212269942100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612201100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +486,7 @@
         <v/>
       </c>
       <c r="B12" t="str">
-        <v>06285119000446;22122612201100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269978100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="13">
@@ -491,7 +494,7 @@
         <v/>
       </c>
       <c r="B13" t="str">
-        <v>06285119000446;2212269978100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269990100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="14">
@@ -499,7 +502,7 @@
         <v/>
       </c>
       <c r="B14" t="str">
-        <v>06285119000446;2212269990100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269991100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="15">
@@ -507,7 +510,7 @@
         <v/>
       </c>
       <c r="B15" t="str">
-        <v>06285119000446;2212269991100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612200100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="16">
@@ -515,7 +518,7 @@
         <v/>
       </c>
       <c r="B16" t="str">
-        <v>06285119000446;22122612200100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612189100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="17">
@@ -523,7 +526,7 @@
         <v/>
       </c>
       <c r="B17" t="str">
-        <v>06285119000446;22122612189100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610099100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="18">
@@ -531,7 +534,7 @@
         <v/>
       </c>
       <c r="B18" t="str">
-        <v>06285119000446;22122610099100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610027100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="19">
@@ -539,7 +542,7 @@
         <v/>
       </c>
       <c r="B19" t="str">
-        <v>06285119000446;22122610027100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610003100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="20">
@@ -547,7 +550,7 @@
         <v/>
       </c>
       <c r="B20" t="str">
-        <v>06285119000446;22122610003100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269877100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="21">
@@ -555,7 +558,7 @@
         <v/>
       </c>
       <c r="B21" t="str">
-        <v>06285119000446;2212269877100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610094100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="22">
@@ -563,7 +566,7 @@
         <v/>
       </c>
       <c r="B22" t="str">
-        <v>06285119000446;22122610094100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269970100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="23">
@@ -571,7 +574,7 @@
         <v/>
       </c>
       <c r="B23" t="str">
-        <v>06285119000446;2212269970100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612188100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="24">
@@ -579,7 +582,7 @@
         <v/>
       </c>
       <c r="B24" t="str">
-        <v>06285119000446;22122612188100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612190100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="25">
@@ -587,7 +590,7 @@
         <v/>
       </c>
       <c r="B25" t="str">
-        <v>06285119000446;22122612190100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269932100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="26">
@@ -595,7 +598,7 @@
         <v/>
       </c>
       <c r="B26" t="str">
-        <v>06285119000446;2212269932100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612208100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="27">
@@ -603,7 +606,7 @@
         <v/>
       </c>
       <c r="B27" t="str">
-        <v>06285119000446;22122612208100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269964100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="28">
@@ -611,7 +614,7 @@
         <v/>
       </c>
       <c r="B28" t="str">
-        <v>06285119000446;2212269964100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269935100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="29">
@@ -619,7 +622,7 @@
         <v/>
       </c>
       <c r="B29" t="str">
-        <v>06285119000446;2212269935100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612182100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="30">
@@ -627,7 +630,7 @@
         <v/>
       </c>
       <c r="B30" t="str">
-        <v>06285119000446;22122612182100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610009100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="31">
@@ -635,7 +638,7 @@
         <v/>
       </c>
       <c r="B31" t="str">
-        <v>06285119000446;22122610009100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612181100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="32">
@@ -643,7 +646,7 @@
         <v/>
       </c>
       <c r="B32" t="str">
-        <v>06285119000446;22122612181100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610006100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="33">
@@ -651,7 +654,7 @@
         <v/>
       </c>
       <c r="B33" t="str">
-        <v>06285119000446;22122610006100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612197100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="34">
@@ -659,7 +662,7 @@
         <v/>
       </c>
       <c r="B34" t="str">
-        <v>06285119000446;22122612197100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269988100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="35">
@@ -667,7 +670,7 @@
         <v/>
       </c>
       <c r="B35" t="str">
-        <v>06285119000446;2212269988100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612183100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="36">
@@ -675,7 +678,7 @@
         <v/>
       </c>
       <c r="B36" t="str">
-        <v>06285119000446;22122612183100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612214100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="37">
@@ -683,7 +686,7 @@
         <v/>
       </c>
       <c r="B37" t="str">
-        <v>06285119000446;22122612214100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269963100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="38">
@@ -691,28 +694,28 @@
         <v/>
       </c>
       <c r="B38" t="str">
-        <v>06285119000446;2212269963100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269936100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
         <v/>
       </c>
-      <c r="B39" t="str">
-        <v>06285119000446;2212269936100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
         <v/>
       </c>
+      <c r="B40" t="str">
+        <v>06285119000446;22122612206100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
         <v/>
       </c>
       <c r="B41" t="str">
-        <v>06285119000446;22122612206100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612169100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="42">
@@ -720,7 +723,7 @@
         <v/>
       </c>
       <c r="B42" t="str">
-        <v>06285119000446;22122612169100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269969100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="43">
@@ -728,7 +731,7 @@
         <v/>
       </c>
       <c r="B43" t="str">
-        <v>06285119000446;2212269969100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269944100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="44">
@@ -736,7 +739,7 @@
         <v/>
       </c>
       <c r="B44" t="str">
-        <v>06285119000446;2212269944100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610026100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="45">
@@ -744,7 +747,7 @@
         <v/>
       </c>
       <c r="B45" t="str">
-        <v>06285119000446;22122610026100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612207100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="46">
@@ -752,7 +755,7 @@
         <v/>
       </c>
       <c r="B46" t="str">
-        <v>06285119000446;22122612207100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610051100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="47">
@@ -760,7 +763,7 @@
         <v/>
       </c>
       <c r="B47" t="str">
-        <v>06285119000446;22122610051100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612187100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="48">
@@ -768,7 +771,7 @@
         <v/>
       </c>
       <c r="B48" t="str">
-        <v>06285119000446;22122612187100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610005100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="49">
@@ -776,7 +779,7 @@
         <v/>
       </c>
       <c r="B49" t="str">
-        <v>06285119000446;22122610005100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612213100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="50">
@@ -784,7 +787,7 @@
         <v/>
       </c>
       <c r="B50" t="str">
-        <v>06285119000446;22122612213100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610045100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="51">
@@ -792,7 +795,7 @@
         <v/>
       </c>
       <c r="B51" t="str">
-        <v>06285119000446;22122610045100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269997100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="52">
@@ -800,7 +803,7 @@
         <v/>
       </c>
       <c r="B52" t="str">
-        <v>06285119000446;2212269997100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612202100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="53">
@@ -808,7 +811,7 @@
         <v/>
       </c>
       <c r="B53" t="str">
-        <v>06285119000446;22122612202100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612218100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="54">
@@ -816,7 +819,7 @@
         <v/>
       </c>
       <c r="B54" t="str">
-        <v>06285119000446;22122612218100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269930100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="55">
@@ -824,7 +827,7 @@
         <v/>
       </c>
       <c r="B55" t="str">
-        <v>06285119000446;2212269930100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610092100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="56">
@@ -832,7 +835,7 @@
         <v/>
       </c>
       <c r="B56" t="str">
-        <v>06285119000446;22122610092100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269974100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="57">
@@ -840,7 +843,7 @@
         <v/>
       </c>
       <c r="B57" t="str">
-        <v>06285119000446;2212269974100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269984100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="58">
@@ -848,7 +851,7 @@
         <v/>
       </c>
       <c r="B58" t="str">
-        <v>06285119000446;2212269984100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612195100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="59">
@@ -856,7 +859,7 @@
         <v/>
       </c>
       <c r="B59" t="str">
-        <v>06285119000446;22122612195100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610081100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="60">
@@ -864,7 +867,7 @@
         <v/>
       </c>
       <c r="B60" t="str">
-        <v>06285119000446;22122610081100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610080100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="61">
@@ -872,7 +875,7 @@
         <v/>
       </c>
       <c r="B61" t="str">
-        <v>06285119000446;22122610080100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269985100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="62">
@@ -880,7 +883,7 @@
         <v/>
       </c>
       <c r="B62" t="str">
-        <v>06285119000446;2212269985100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269977100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="63">
@@ -888,7 +891,7 @@
         <v/>
       </c>
       <c r="B63" t="str">
-        <v>06285119000446;2212269977100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612203100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="64">
@@ -896,7 +899,7 @@
         <v/>
       </c>
       <c r="B64" t="str">
-        <v>06285119000446;22122612203100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612037100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="65">
@@ -904,7 +907,7 @@
         <v/>
       </c>
       <c r="B65" t="str">
-        <v>06285119000446;22122612037100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612168100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="66">
@@ -912,7 +915,7 @@
         <v/>
       </c>
       <c r="B66" t="str">
-        <v>06285119000446;22122612168100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269961100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="67">
@@ -920,7 +923,7 @@
         <v/>
       </c>
       <c r="B67" t="str">
-        <v>06285119000446;2212269961100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612031100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="68">
@@ -928,7 +931,7 @@
         <v/>
       </c>
       <c r="B68" t="str">
-        <v>06285119000446;22122612031100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269999100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="69">
@@ -936,7 +939,7 @@
         <v/>
       </c>
       <c r="B69" t="str">
-        <v>06285119000446;2212269999100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269971100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="70">
@@ -944,7 +947,7 @@
         <v/>
       </c>
       <c r="B70" t="str">
-        <v>06285119000446;2212269971100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269904100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="71">
@@ -960,7 +963,7 @@
         <v/>
       </c>
       <c r="B72" t="str">
-        <v>06285119000446;2212269904100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269891100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="73">
@@ -968,7 +971,7 @@
         <v/>
       </c>
       <c r="B73" t="str">
-        <v>06285119000446;2212269891100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269987100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="74">
@@ -976,7 +979,7 @@
         <v/>
       </c>
       <c r="B74" t="str">
-        <v>06285119000446;2212269987100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610095100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="75">
@@ -984,7 +987,7 @@
         <v/>
       </c>
       <c r="B75" t="str">
-        <v>06285119000446;22122610095100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612185100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="76">
@@ -992,7 +995,7 @@
         <v/>
       </c>
       <c r="B76" t="str">
-        <v>06285119000446;22122612185100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610014100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="77">
@@ -1000,7 +1003,7 @@
         <v/>
       </c>
       <c r="B77" t="str">
-        <v>06285119000446;22122610014100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612216100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="78">
@@ -1008,7 +1011,7 @@
         <v/>
       </c>
       <c r="B78" t="str">
-        <v>06285119000446;22122612216100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269982100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="79">
@@ -1016,7 +1019,7 @@
         <v/>
       </c>
       <c r="B79" t="str">
-        <v>06285119000446;2212269982100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269924100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="80">
@@ -1024,7 +1027,7 @@
         <v/>
       </c>
       <c r="B80" t="str">
-        <v>06285119000446;2212269924100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612180100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="81">
@@ -1032,7 +1035,7 @@
         <v/>
       </c>
       <c r="B81" t="str">
-        <v>06285119000446;22122612180100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610083100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="82">
@@ -1040,7 +1043,7 @@
         <v/>
       </c>
       <c r="B82" t="str">
-        <v>06285119000446;22122610083100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269996100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="83">
@@ -1048,7 +1051,7 @@
         <v/>
       </c>
       <c r="B83" t="str">
-        <v>06285119000446;2212269996100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269976100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="84">
@@ -1056,7 +1059,7 @@
         <v/>
       </c>
       <c r="B84" t="str">
-        <v>06285119000446;2212269976100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612186100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="85">
@@ -1064,7 +1067,7 @@
         <v/>
       </c>
       <c r="B85" t="str">
-        <v>06285119000446;22122612186100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612164100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="86">
@@ -1072,7 +1075,7 @@
         <v/>
       </c>
       <c r="B86" t="str">
-        <v>06285119000446;22122612164100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269994100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="87">
@@ -1080,7 +1083,7 @@
         <v/>
       </c>
       <c r="B87" t="str">
-        <v>06285119000446;2212269994100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269438100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="88">
@@ -1088,7 +1091,7 @@
         <v/>
       </c>
       <c r="B88" t="str">
-        <v>06285119000446;2212269438100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269925100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="89">
@@ -1096,7 +1099,7 @@
         <v/>
       </c>
       <c r="B89" t="str">
-        <v>06285119000446;2212269925100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612198100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="90">
@@ -1104,16 +1107,13 @@
         <v/>
       </c>
       <c r="B90" t="str">
-        <v>06285119000446;22122612198100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612191100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
         <v/>
       </c>
-      <c r="B91" t="str">
-        <v>06285119000446;22122612191100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -1124,13 +1124,16 @@
       <c r="A93" t="str">
         <v/>
       </c>
+      <c r="B93" t="str">
+        <v>06285119000446;2212269884100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
         <v/>
       </c>
       <c r="B94" t="str">
-        <v>06285119000446;2212269884100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612211100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="95">
@@ -1138,7 +1141,7 @@
         <v/>
       </c>
       <c r="B95" t="str">
-        <v>06285119000446;22122612211100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269968100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="96">
@@ -1146,7 +1149,7 @@
         <v/>
       </c>
       <c r="B96" t="str">
-        <v>06285119000446;2212269968100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610093100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="97">
@@ -1154,7 +1157,7 @@
         <v/>
       </c>
       <c r="B97" t="str">
-        <v>06285119000446;22122610093100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612036100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="98">
@@ -1162,7 +1165,7 @@
         <v/>
       </c>
       <c r="B98" t="str">
-        <v>06285119000446;22122612036100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612204100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="99">
@@ -1170,28 +1173,28 @@
         <v/>
       </c>
       <c r="B99" t="str">
-        <v>06285119000446;22122612204100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612166100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
         <v/>
       </c>
-      <c r="B100" t="str">
-        <v>06285119000446;22122612166100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
         <v/>
       </c>
+      <c r="B101" t="str">
+        <v>06285119000446;2212269890100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
         <v/>
       </c>
       <c r="B102" t="str">
-        <v>06285119000446;2212269890100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612212100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="103">
@@ -1199,7 +1202,7 @@
         <v/>
       </c>
       <c r="B103" t="str">
-        <v>06285119000446;22122612212100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269922100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="104">
@@ -1207,7 +1210,7 @@
         <v/>
       </c>
       <c r="B104" t="str">
-        <v>06285119000446;2212269922100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612210100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="105">
@@ -1215,7 +1218,7 @@
         <v/>
       </c>
       <c r="B105" t="str">
-        <v>06285119000446;22122612210100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269931100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="106">
@@ -1223,16 +1226,13 @@
         <v/>
       </c>
       <c r="B106" t="str">
-        <v>06285119000446;2212269931100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612165100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
         <v/>
       </c>
-      <c r="B107" t="str">
-        <v>06285119000446;22122612165100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -1243,13 +1243,16 @@
       <c r="A109" t="str">
         <v/>
       </c>
+      <c r="B109" t="str">
+        <v>06285119000446;22122610082100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
         <v/>
       </c>
       <c r="B110" t="str">
-        <v>06285119000446;22122610082100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610004100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="111">
@@ -1257,7 +1260,7 @@
         <v/>
       </c>
       <c r="B111" t="str">
-        <v>06285119000446;22122610004100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269923100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="112">
@@ -1265,7 +1268,7 @@
         <v/>
       </c>
       <c r="B112" t="str">
-        <v>06285119000446;2212269923100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269975100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="113">
@@ -1273,7 +1276,7 @@
         <v/>
       </c>
       <c r="B113" t="str">
-        <v>06285119000446;2212269975100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269983100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="114">
@@ -1281,7 +1284,7 @@
         <v/>
       </c>
       <c r="B114" t="str">
-        <v>06285119000446;2212269983100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269965100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="115">
@@ -1289,7 +1292,7 @@
         <v/>
       </c>
       <c r="B115" t="str">
-        <v>06285119000446;2212269965100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612209100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="116">
@@ -1297,28 +1300,28 @@
         <v/>
       </c>
       <c r="B116" t="str">
-        <v>06285119000446;22122612209100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612205100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
         <v/>
       </c>
-      <c r="B117" t="str">
-        <v>06285119000446;22122612205100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
         <v/>
       </c>
+      <c r="B118" t="str">
+        <v>06285119000446;2212269938100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
         <v/>
       </c>
       <c r="B119" t="str">
-        <v>06285119000446;2212269938100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610025100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="120">
@@ -1326,7 +1329,7 @@
         <v/>
       </c>
       <c r="B120" t="str">
-        <v>06285119000446;22122610025100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612199100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="121">
@@ -1334,7 +1337,7 @@
         <v/>
       </c>
       <c r="B121" t="str">
-        <v>06285119000446;22122612199100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612029100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="122">
@@ -1342,7 +1345,7 @@
         <v/>
       </c>
       <c r="B122" t="str">
-        <v>06285119000446;22122612029100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269926100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="123">
@@ -1350,16 +1353,13 @@
         <v/>
       </c>
       <c r="B123" t="str">
-        <v>06285119000446;2212269926100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610052100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
         <v/>
       </c>
-      <c r="B124" t="str">
-        <v>06285119000446;22122610052100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
@@ -1370,13 +1370,16 @@
       <c r="A126" t="str">
         <v/>
       </c>
+      <c r="B126" t="str">
+        <v>06285119000446;2212269889100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
         <v/>
       </c>
       <c r="B127" t="str">
-        <v>06285119000446;2212269889100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269939100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="128">
@@ -1384,7 +1387,7 @@
         <v/>
       </c>
       <c r="B128" t="str">
-        <v>06285119000446;2212269939100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612193100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="129">
@@ -1392,7 +1395,7 @@
         <v/>
       </c>
       <c r="B129" t="str">
-        <v>06285119000446;22122612193100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612028100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="130">
@@ -1400,28 +1403,28 @@
         <v/>
       </c>
       <c r="B130" t="str">
-        <v>06285119000446;22122612028100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612030100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
         <v/>
       </c>
-      <c r="B131" t="str">
-        <v>06285119000446;22122612030100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
         <v/>
       </c>
+      <c r="B132" t="str">
+        <v>06285119000446;22122612194100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
         <v/>
       </c>
       <c r="B133" t="str">
-        <v>06285119000446;22122612194100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612167100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="134">
@@ -1429,7 +1432,7 @@
         <v/>
       </c>
       <c r="B134" t="str">
-        <v>06285119000446;22122612167100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612184100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="135">
@@ -1437,7 +1440,7 @@
         <v/>
       </c>
       <c r="B135" t="str">
-        <v>06285119000446;22122612184100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269962100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="136">
@@ -1445,7 +1448,7 @@
         <v/>
       </c>
       <c r="B136" t="str">
-        <v>06285119000446;2212269962100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269876100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="137">
@@ -1453,7 +1456,7 @@
         <v/>
       </c>
       <c r="B137" t="str">
-        <v>06285119000446;2212269876100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269945100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="138">
@@ -1461,7 +1464,7 @@
         <v/>
       </c>
       <c r="B138" t="str">
-        <v>06285119000446;2212269945100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612215100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="139">
@@ -1469,7 +1472,7 @@
         <v/>
       </c>
       <c r="B139" t="str">
-        <v>06285119000446;22122612215100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612162100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="140">
@@ -1477,7 +1480,7 @@
         <v/>
       </c>
       <c r="B140" t="str">
-        <v>06285119000446;22122612162100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612192100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="141">
@@ -1485,7 +1488,7 @@
         <v/>
       </c>
       <c r="B141" t="str">
-        <v>06285119000446;22122612192100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610023100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="142">
@@ -1493,7 +1496,7 @@
         <v/>
       </c>
       <c r="B142" t="str">
-        <v>06285119000446;22122610023100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610024100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="143">
@@ -1501,7 +1504,7 @@
         <v/>
       </c>
       <c r="B143" t="str">
-        <v>06285119000446;22122610024100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616254100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="144">
@@ -1509,7 +1512,7 @@
         <v/>
       </c>
       <c r="B144" t="str">
-        <v>06285119000446;22122616254100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616359100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="145">
@@ -1517,7 +1520,7 @@
         <v/>
       </c>
       <c r="B145" t="str">
-        <v>06285119000446;22122616359100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616262100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="146">
@@ -1525,7 +1528,7 @@
         <v/>
       </c>
       <c r="B146" t="str">
-        <v>06285119000446;22122616262100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616264100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="147">
@@ -1533,7 +1536,7 @@
         <v/>
       </c>
       <c r="B147" t="str">
-        <v>06285119000446;22122616264100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616313100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="148">
@@ -1541,7 +1544,7 @@
         <v/>
       </c>
       <c r="B148" t="str">
-        <v>06285119000446;22122616313100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616300100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="149">
@@ -1549,7 +1552,7 @@
         <v/>
       </c>
       <c r="B149" t="str">
-        <v>06285119000446;22122616300100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616230100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="150">
@@ -1557,7 +1560,7 @@
         <v/>
       </c>
       <c r="B150" t="str">
-        <v>06285119000446;22122616230100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616272100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="151">
@@ -1565,7 +1568,7 @@
         <v/>
       </c>
       <c r="B151" t="str">
-        <v>06285119000446;22122616272100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616368100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="152">
@@ -1573,7 +1576,7 @@
         <v/>
       </c>
       <c r="B152" t="str">
-        <v>06285119000446;22122616368100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616351100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="153">
@@ -1581,7 +1584,7 @@
         <v/>
       </c>
       <c r="B153" t="str">
-        <v>06285119000446;22122616351100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616275100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="154">
@@ -1589,7 +1592,7 @@
         <v/>
       </c>
       <c r="B154" t="str">
-        <v>06285119000446;22122616275100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616260100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="155">
@@ -1597,7 +1600,7 @@
         <v/>
       </c>
       <c r="B155" t="str">
-        <v>06285119000446;22122616260100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616271100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="156">
@@ -1605,7 +1608,7 @@
         <v/>
       </c>
       <c r="B156" t="str">
-        <v>06285119000446;22122616271100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616283100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="157">
@@ -1613,7 +1616,7 @@
         <v/>
       </c>
       <c r="B157" t="str">
-        <v>06285119000446;22122616283100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616214100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="158">
@@ -1621,7 +1624,7 @@
         <v/>
       </c>
       <c r="B158" t="str">
-        <v>06285119000446;22122616214100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616259100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="159">
@@ -1629,7 +1632,7 @@
         <v/>
       </c>
       <c r="B159" t="str">
-        <v>06285119000446;22122616259100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616352100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="160">
@@ -1637,7 +1640,7 @@
         <v/>
       </c>
       <c r="B160" t="str">
-        <v>06285119000446;22122616352100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616299100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="161">
@@ -1645,7 +1648,7 @@
         <v/>
       </c>
       <c r="B161" t="str">
-        <v>06285119000446;22122616299100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616318100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="162">
@@ -1653,7 +1656,7 @@
         <v/>
       </c>
       <c r="B162" t="str">
-        <v>06285119000446;22122616318100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616325100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="163">
@@ -1661,7 +1664,7 @@
         <v/>
       </c>
       <c r="B163" t="str">
-        <v>06285119000446;22122616325100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616314100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="164">
@@ -1669,7 +1672,7 @@
         <v/>
       </c>
       <c r="B164" t="str">
-        <v>06285119000446;22122616314100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616334100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="165">
@@ -1677,7 +1680,7 @@
         <v/>
       </c>
       <c r="B165" t="str">
-        <v>06285119000446;22122616334100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616321100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="166">
@@ -1685,7 +1688,7 @@
         <v/>
       </c>
       <c r="B166" t="str">
-        <v>06285119000446;22122616321100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616309100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="167">
@@ -1693,7 +1696,7 @@
         <v/>
       </c>
       <c r="B167" t="str">
-        <v>06285119000446;22122616309100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616234100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="168">
@@ -1701,7 +1704,7 @@
         <v/>
       </c>
       <c r="B168" t="str">
-        <v>06285119000446;22122616234100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616238100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="169">
@@ -1709,7 +1712,7 @@
         <v/>
       </c>
       <c r="B169" t="str">
-        <v>06285119000446;22122616238100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616235100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="170">
@@ -1717,7 +1720,7 @@
         <v/>
       </c>
       <c r="B170" t="str">
-        <v>06285119000446;22122616235100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616248100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="171">
@@ -1725,7 +1728,7 @@
         <v/>
       </c>
       <c r="B171" t="str">
-        <v>06285119000446;22122616248100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616315100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="172">
@@ -1733,7 +1736,7 @@
         <v/>
       </c>
       <c r="B172" t="str">
-        <v>06285119000446;22122616315100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616345100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="173">
@@ -1741,7 +1744,7 @@
         <v/>
       </c>
       <c r="B173" t="str">
-        <v>06285119000446;22122616345100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616244100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="174">
@@ -1749,7 +1752,7 @@
         <v/>
       </c>
       <c r="B174" t="str">
-        <v>06285119000446;22122616244100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616229100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="175">
@@ -1757,7 +1760,7 @@
         <v/>
       </c>
       <c r="B175" t="str">
-        <v>06285119000446;22122616229100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616338100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="176">
@@ -1765,7 +1768,7 @@
         <v/>
       </c>
       <c r="B176" t="str">
-        <v>06285119000446;22122616338100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616372100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="177">
@@ -1773,7 +1776,7 @@
         <v/>
       </c>
       <c r="B177" t="str">
-        <v>06285119000446;22122616372100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616246100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="178">
@@ -1781,7 +1784,7 @@
         <v/>
       </c>
       <c r="B178" t="str">
-        <v>06285119000446;22122616246100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616364100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="179">
@@ -1789,7 +1792,7 @@
         <v/>
       </c>
       <c r="B179" t="str">
-        <v>06285119000446;22122616364100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616286100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="180">
@@ -1797,7 +1800,7 @@
         <v/>
       </c>
       <c r="B180" t="str">
-        <v>06285119000446;22122616286100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616332100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="181">
@@ -1805,7 +1808,7 @@
         <v/>
       </c>
       <c r="B181" t="str">
-        <v>06285119000446;22122616332100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616369100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="182">
@@ -1813,7 +1816,7 @@
         <v/>
       </c>
       <c r="B182" t="str">
-        <v>06285119000446;22122616369100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616323100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="183">
@@ -1821,7 +1824,7 @@
         <v/>
       </c>
       <c r="B183" t="str">
-        <v>06285119000446;22122616323100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616257100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="184">
@@ -1829,7 +1832,7 @@
         <v/>
       </c>
       <c r="B184" t="str">
-        <v>06285119000446;22122616257100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616367100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="185">
@@ -1837,7 +1840,7 @@
         <v/>
       </c>
       <c r="B185" t="str">
-        <v>06285119000446;22122616367100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616360100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="186">
@@ -1845,28 +1848,28 @@
         <v/>
       </c>
       <c r="B186" t="str">
-        <v>06285119000446;22122616360100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616312100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
         <v/>
       </c>
-      <c r="B187" t="str">
-        <v>06285119000446;22122616312100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
         <v/>
       </c>
+      <c r="B188" t="str">
+        <v>06285119000446;22122616348100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
         <v/>
       </c>
       <c r="B189" t="str">
-        <v>06285119000446;22122616348100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616307100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="190">
@@ -1874,7 +1877,7 @@
         <v/>
       </c>
       <c r="B190" t="str">
-        <v>06285119000446;22122616307100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616337100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="191">
@@ -1882,7 +1885,7 @@
         <v/>
       </c>
       <c r="B191" t="str">
-        <v>06285119000446;22122616337100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616311100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="192">
@@ -1890,7 +1893,7 @@
         <v/>
       </c>
       <c r="B192" t="str">
-        <v>06285119000446;22122616311100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616316100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="193">
@@ -1898,7 +1901,7 @@
         <v/>
       </c>
       <c r="B193" t="str">
-        <v>06285119000446;22122616316100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616267100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="194">
@@ -1906,7 +1909,7 @@
         <v/>
       </c>
       <c r="B194" t="str">
-        <v>06285119000446;22122616267100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616222100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="195">
@@ -1914,7 +1917,7 @@
         <v/>
       </c>
       <c r="B195" t="str">
-        <v>06285119000446;22122616222100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616354100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="196">
@@ -1922,7 +1925,7 @@
         <v/>
       </c>
       <c r="B196" t="str">
-        <v>06285119000446;22122616354100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616263100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="197">
@@ -1930,7 +1933,7 @@
         <v/>
       </c>
       <c r="B197" t="str">
-        <v>06285119000446;22122616263100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616343100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="198">
@@ -1938,7 +1941,7 @@
         <v/>
       </c>
       <c r="B198" t="str">
-        <v>06285119000446;22122616343100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616310100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="199">
@@ -1946,7 +1949,7 @@
         <v/>
       </c>
       <c r="B199" t="str">
-        <v>06285119000446;22122616310100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616356100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="200">
@@ -1954,7 +1957,7 @@
         <v/>
       </c>
       <c r="B200" t="str">
-        <v>06285119000446;22122616356100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616370100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="201">
@@ -1962,7 +1965,7 @@
         <v/>
       </c>
       <c r="B201" t="str">
-        <v>06285119000446;22122616370100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616296100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="202">
@@ -1970,7 +1973,7 @@
         <v/>
       </c>
       <c r="B202" t="str">
-        <v>06285119000446;22122616296100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616330100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="203">
@@ -1978,7 +1981,7 @@
         <v/>
       </c>
       <c r="B203" t="str">
-        <v>06285119000446;22122616330100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616287100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="204">
@@ -1986,7 +1989,7 @@
         <v/>
       </c>
       <c r="B204" t="str">
-        <v>06285119000446;22122616287100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616294100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="205">
@@ -1994,7 +1997,7 @@
         <v/>
       </c>
       <c r="B205" t="str">
-        <v>06285119000446;22122616294100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616335100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="206">
@@ -2002,7 +2005,7 @@
         <v/>
       </c>
       <c r="B206" t="str">
-        <v>06285119000446;22122616335100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616320100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="207">
@@ -2010,7 +2013,7 @@
         <v/>
       </c>
       <c r="B207" t="str">
-        <v>06285119000446;22122616320100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616301100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="208">
@@ -2018,7 +2021,7 @@
         <v/>
       </c>
       <c r="B208" t="str">
-        <v>06285119000446;22122616301100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616346100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="209">
@@ -2026,7 +2029,7 @@
         <v/>
       </c>
       <c r="B209" t="str">
-        <v>06285119000446;22122616346100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616284100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="210">
@@ -2034,7 +2037,7 @@
         <v/>
       </c>
       <c r="B210" t="str">
-        <v>06285119000446;22122616284100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616236100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="211">
@@ -2042,7 +2045,7 @@
         <v/>
       </c>
       <c r="B211" t="str">
-        <v>06285119000446;22122616236100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616253100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="212">
@@ -2050,7 +2053,7 @@
         <v/>
       </c>
       <c r="B212" t="str">
-        <v>06285119000446;22122616253100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616340100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="213">
@@ -2058,7 +2061,7 @@
         <v/>
       </c>
       <c r="B213" t="str">
-        <v>06285119000446;22122616340100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616302100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="214">
@@ -2066,7 +2069,7 @@
         <v/>
       </c>
       <c r="B214" t="str">
-        <v>06285119000446;22122616302100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616242100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="215">
@@ -2074,7 +2077,7 @@
         <v/>
       </c>
       <c r="B215" t="str">
-        <v>06285119000446;22122616242100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616250100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="216">
@@ -2082,7 +2085,7 @@
         <v/>
       </c>
       <c r="B216" t="str">
-        <v>06285119000446;22122616250100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616258100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="217">
@@ -2090,7 +2093,7 @@
         <v/>
       </c>
       <c r="B217" t="str">
-        <v>06285119000446;22122616258100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616292100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="218">
@@ -2098,7 +2101,7 @@
         <v/>
       </c>
       <c r="B218" t="str">
-        <v>06285119000446;22122616292100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616290100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="219">
@@ -2106,7 +2109,7 @@
         <v/>
       </c>
       <c r="B219" t="str">
-        <v>06285119000446;22122616290100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616256100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="220">
@@ -2114,7 +2117,7 @@
         <v/>
       </c>
       <c r="B220" t="str">
-        <v>06285119000446;22122616256100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616245100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="221">
@@ -2122,7 +2125,7 @@
         <v/>
       </c>
       <c r="B221" t="str">
-        <v>06285119000446;22122616245100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616239100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="222">
@@ -2130,7 +2133,7 @@
         <v/>
       </c>
       <c r="B222" t="str">
-        <v>06285119000446;22122616239100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616274100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="223">
@@ -2138,7 +2141,7 @@
         <v/>
       </c>
       <c r="B223" t="str">
-        <v>06285119000446;22122616274100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616266100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="224">
@@ -2146,7 +2149,7 @@
         <v/>
       </c>
       <c r="B224" t="str">
-        <v>06285119000446;22122616266100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616261100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="225">
@@ -2154,7 +2157,7 @@
         <v/>
       </c>
       <c r="B225" t="str">
-        <v>06285119000446;22122616261100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616303100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="226">
@@ -2162,7 +2165,7 @@
         <v/>
       </c>
       <c r="B226" t="str">
-        <v>06285119000446;22122616303100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616293100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="227">
@@ -2170,7 +2173,7 @@
         <v/>
       </c>
       <c r="B227" t="str">
-        <v>06285119000446;22122616293100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616308100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="228">
@@ -2178,7 +2181,7 @@
         <v/>
       </c>
       <c r="B228" t="str">
-        <v>06285119000446;22122616308100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616269100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="229">
@@ -2186,7 +2189,7 @@
         <v/>
       </c>
       <c r="B229" t="str">
-        <v>06285119000446;22122616269100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616277100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="230">
@@ -2194,7 +2197,7 @@
         <v/>
       </c>
       <c r="B230" t="str">
-        <v>06285119000446;22122616277100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616285100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="231">
@@ -2202,7 +2205,7 @@
         <v/>
       </c>
       <c r="B231" t="str">
-        <v>06285119000446;22122616285100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616282100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="232">
@@ -2210,7 +2213,7 @@
         <v/>
       </c>
       <c r="B232" t="str">
-        <v>06285119000446;22122616282100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616298100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="233">
@@ -2218,7 +2221,7 @@
         <v/>
       </c>
       <c r="B233" t="str">
-        <v>06285119000446;22122616298100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616306100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="234">
@@ -2226,7 +2229,7 @@
         <v/>
       </c>
       <c r="B234" t="str">
-        <v>06285119000446;22122616306100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616289100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="235">
@@ -2234,7 +2237,7 @@
         <v/>
       </c>
       <c r="B235" t="str">
-        <v>06285119000446;22122616289100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616297100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="236">
@@ -2242,7 +2245,7 @@
         <v/>
       </c>
       <c r="B236" t="str">
-        <v>06285119000446;22122616297100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616305100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="237">
@@ -2250,7 +2253,7 @@
         <v/>
       </c>
       <c r="B237" t="str">
-        <v>06285119000446;22122616305100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616265100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="238">
@@ -2258,7 +2261,7 @@
         <v/>
       </c>
       <c r="B238" t="str">
-        <v>06285119000446;22122616265100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616273100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="239">
@@ -2266,7 +2269,7 @@
         <v/>
       </c>
       <c r="B239" t="str">
-        <v>06285119000446;22122616273100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616281100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="240">
@@ -2274,7 +2277,7 @@
         <v/>
       </c>
       <c r="B240" t="str">
-        <v>06285119000446;22122616281100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616231100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="241">
@@ -2282,7 +2285,7 @@
         <v/>
       </c>
       <c r="B241" t="str">
-        <v>06285119000446;22122616231100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616241100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="242">
@@ -2290,7 +2293,7 @@
         <v/>
       </c>
       <c r="B242" t="str">
-        <v>06285119000446;22122616241100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616249100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="243">
@@ -2298,7 +2301,7 @@
         <v/>
       </c>
       <c r="B243" t="str">
-        <v>06285119000446;22122616249100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616255100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="244">
@@ -2306,7 +2309,7 @@
         <v/>
       </c>
       <c r="B244" t="str">
-        <v>06285119000446;22122616255100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616322100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="245">
@@ -2314,7 +2317,7 @@
         <v/>
       </c>
       <c r="B245" t="str">
-        <v>06285119000446;22122616322100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616270100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="246">
@@ -2322,7 +2325,7 @@
         <v/>
       </c>
       <c r="B246" t="str">
-        <v>06285119000446;22122616270100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616233100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="247">
@@ -2330,7 +2333,7 @@
         <v/>
       </c>
       <c r="B247" t="str">
-        <v>06285119000446;22122616233100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616347100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="248">
@@ -2338,7 +2341,7 @@
         <v/>
       </c>
       <c r="B248" t="str">
-        <v>06285119000446;22122616347100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616333100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="249">
@@ -2346,7 +2349,7 @@
         <v/>
       </c>
       <c r="B249" t="str">
-        <v>06285119000446;22122616333100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616324100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="250">
@@ -2354,7 +2357,7 @@
         <v/>
       </c>
       <c r="B250" t="str">
-        <v>06285119000446;22122616324100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616349100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="251">
@@ -2362,7 +2365,7 @@
         <v/>
       </c>
       <c r="B251" t="str">
-        <v>06285119000446;22122616349100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616341100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="252">
@@ -2370,7 +2373,7 @@
         <v/>
       </c>
       <c r="B252" t="str">
-        <v>06285119000446;22122616341100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616365100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="253">
@@ -2378,7 +2381,7 @@
         <v/>
       </c>
       <c r="B253" t="str">
-        <v>06285119000446;22122616365100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616357100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="254">
@@ -2386,7 +2389,7 @@
         <v/>
       </c>
       <c r="B254" t="str">
-        <v>06285119000446;22122616357100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616373100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="255">
@@ -2394,7 +2397,7 @@
         <v/>
       </c>
       <c r="B255" t="str">
-        <v>06285119000446;22122616373100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616247100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="256">
@@ -2402,7 +2405,7 @@
         <v/>
       </c>
       <c r="B256" t="str">
-        <v>06285119000446;22122616247100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616268100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="257">
@@ -2410,7 +2413,7 @@
         <v/>
       </c>
       <c r="B257" t="str">
-        <v>06285119000446;22122616268100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616353100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="258">
@@ -2418,7 +2421,7 @@
         <v/>
       </c>
       <c r="B258" t="str">
-        <v>06285119000446;22122616353100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616329100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="259">
@@ -2426,7 +2429,7 @@
         <v/>
       </c>
       <c r="B259" t="str">
-        <v>06285119000446;22122616329100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616251100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="260">
@@ -2434,7 +2437,7 @@
         <v/>
       </c>
       <c r="B260" t="str">
-        <v>06285119000446;22122616251100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616336100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="261">
@@ -2442,7 +2445,7 @@
         <v/>
       </c>
       <c r="B261" t="str">
-        <v>06285119000446;22122616336100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616328100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="262">
@@ -2450,7 +2453,7 @@
         <v/>
       </c>
       <c r="B262" t="str">
-        <v>06285119000446;22122616328100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616243100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="263">
@@ -2458,7 +2461,7 @@
         <v/>
       </c>
       <c r="B263" t="str">
-        <v>06285119000446;22122616243100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616280100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="264">
@@ -2466,7 +2469,7 @@
         <v/>
       </c>
       <c r="B264" t="str">
-        <v>06285119000446;22122616280100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616291100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="265">
@@ -2474,7 +2477,7 @@
         <v/>
       </c>
       <c r="B265" t="str">
-        <v>06285119000446;22122616291100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616319100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="266">
@@ -2482,7 +2485,7 @@
         <v/>
       </c>
       <c r="B266" t="str">
-        <v>06285119000446;22122616319100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616339100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="267">
@@ -2490,7 +2493,7 @@
         <v/>
       </c>
       <c r="B267" t="str">
-        <v>06285119000446;22122616339100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616331100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="268">
@@ -2498,7 +2501,7 @@
         <v/>
       </c>
       <c r="B268" t="str">
-        <v>06285119000446;22122616331100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616295100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="269">
@@ -2506,7 +2509,7 @@
         <v/>
       </c>
       <c r="B269" t="str">
-        <v>06285119000446;22122616295100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616288100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="270">
@@ -2514,7 +2517,7 @@
         <v/>
       </c>
       <c r="B270" t="str">
-        <v>06285119000446;22122616288100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616355100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="271">
@@ -2522,7 +2525,7 @@
         <v/>
       </c>
       <c r="B271" t="str">
-        <v>06285119000446;22122616355100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616344100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="272">
@@ -2530,7 +2533,7 @@
         <v/>
       </c>
       <c r="B272" t="str">
-        <v>06285119000446;22122616344100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616240100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="273">
@@ -2538,7 +2541,7 @@
         <v/>
       </c>
       <c r="B273" t="str">
-        <v>06285119000446;22122616240100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616279100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="274">
@@ -2546,7 +2549,7 @@
         <v/>
       </c>
       <c r="B274" t="str">
-        <v>06285119000446;22122616279100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616278100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="275">
@@ -2554,7 +2557,7 @@
         <v/>
       </c>
       <c r="B275" t="str">
-        <v>06285119000446;22122616278100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616362100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="276">
@@ -2562,7 +2565,7 @@
         <v/>
       </c>
       <c r="B276" t="str">
-        <v>06285119000446;22122616362100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616361100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="277">
@@ -2570,7 +2573,7 @@
         <v/>
       </c>
       <c r="B277" t="str">
-        <v>06285119000446;22122616361100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616371100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="278">
@@ -2578,7 +2581,7 @@
         <v/>
       </c>
       <c r="B278" t="str">
-        <v>06285119000446;22122616371100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616252100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="279">
@@ -2586,7 +2589,7 @@
         <v/>
       </c>
       <c r="B279" t="str">
-        <v>06285119000446;22122616252100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616276100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="280">
@@ -2594,7 +2597,7 @@
         <v/>
       </c>
       <c r="B280" t="str">
-        <v>06285119000446;22122616276100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616363100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="281">
@@ -2602,7 +2605,7 @@
         <v/>
       </c>
       <c r="B281" t="str">
-        <v>06285119000446;22122616363100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616327100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="282">
@@ -2610,7 +2613,7 @@
         <v/>
       </c>
       <c r="B282" t="str">
-        <v>06285119000446;22122616327100;11221216;16/12/2024</v>
+        <v>06285119000446;22122616237100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="283">
@@ -2618,7 +2621,7 @@
         <v/>
       </c>
       <c r="B283" t="str">
-        <v>06285119000446;22122616237100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610688100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="284">
@@ -2626,7 +2629,7 @@
         <v/>
       </c>
       <c r="B284" t="str">
-        <v>06285119000446;22122610688100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610707100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="285">
@@ -2634,7 +2637,7 @@
         <v/>
       </c>
       <c r="B285" t="str">
-        <v>06285119000446;22122610707100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610694100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="286">
@@ -2642,7 +2645,7 @@
         <v/>
       </c>
       <c r="B286" t="str">
-        <v>06285119000446;22122610694100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610683100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="287">
@@ -2650,7 +2653,7 @@
         <v/>
       </c>
       <c r="B287" t="str">
-        <v>06285119000446;22122610683100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610693100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="288">
@@ -2658,7 +2661,7 @@
         <v/>
       </c>
       <c r="B288" t="str">
-        <v>06285119000446;22122610693100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610706100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="289">
@@ -2666,7 +2669,7 @@
         <v/>
       </c>
       <c r="B289" t="str">
-        <v>06285119000446;22122610706100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610668100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="290">
@@ -2674,7 +2677,7 @@
         <v/>
       </c>
       <c r="B290" t="str">
-        <v>06285119000446;22122610668100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610674100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="291">
@@ -2682,7 +2685,7 @@
         <v/>
       </c>
       <c r="B291" t="str">
-        <v>06285119000446;22122610674100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610661100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="292">
@@ -2690,7 +2693,7 @@
         <v/>
       </c>
       <c r="B292" t="str">
-        <v>06285119000446;22122610661100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610669100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="293">
@@ -2698,7 +2701,7 @@
         <v/>
       </c>
       <c r="B293" t="str">
-        <v>06285119000446;22122610669100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610640100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="294">
@@ -2706,7 +2709,7 @@
         <v/>
       </c>
       <c r="B294" t="str">
-        <v>06285119000446;22122610640100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610633100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="295">
@@ -2714,7 +2717,7 @@
         <v/>
       </c>
       <c r="B295" t="str">
-        <v>06285119000446;22122610633100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610649100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="296">
@@ -2722,7 +2725,7 @@
         <v/>
       </c>
       <c r="B296" t="str">
-        <v>06285119000446;22122610649100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610653100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="297">
@@ -2730,7 +2733,7 @@
         <v/>
       </c>
       <c r="B297" t="str">
-        <v>06285119000446;22122610653100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610659100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="298">
@@ -2738,7 +2741,7 @@
         <v/>
       </c>
       <c r="B298" t="str">
-        <v>06285119000446;22122610659100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610643100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="299">
@@ -2746,7 +2749,7 @@
         <v/>
       </c>
       <c r="B299" t="str">
-        <v>06285119000446;22122610643100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610648100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="300">
@@ -2754,7 +2757,7 @@
         <v/>
       </c>
       <c r="B300" t="str">
-        <v>06285119000446;22122610648100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610652100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="301">
@@ -2762,7 +2765,7 @@
         <v/>
       </c>
       <c r="B301" t="str">
-        <v>06285119000446;22122610652100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610654100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="302">
@@ -2770,7 +2773,7 @@
         <v/>
       </c>
       <c r="B302" t="str">
-        <v>06285119000446;22122610654100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610660100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="303">
@@ -2778,7 +2781,7 @@
         <v/>
       </c>
       <c r="B303" t="str">
-        <v>06285119000446;22122610660100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610644100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="304">
@@ -2786,7 +2789,7 @@
         <v/>
       </c>
       <c r="B304" t="str">
-        <v>06285119000446;22122610644100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610634100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="305">
@@ -2794,7 +2797,7 @@
         <v/>
       </c>
       <c r="B305" t="str">
-        <v>06285119000446;22122610634100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610647100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="306">
@@ -2802,7 +2805,7 @@
         <v/>
       </c>
       <c r="B306" t="str">
-        <v>06285119000446;22122610647100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610656100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="307">
@@ -2810,7 +2813,7 @@
         <v/>
       </c>
       <c r="B307" t="str">
-        <v>06285119000446;22122610656100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610663100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="308">
@@ -2818,7 +2821,7 @@
         <v/>
       </c>
       <c r="B308" t="str">
-        <v>06285119000446;22122610663100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610671100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="309">
@@ -2826,7 +2829,7 @@
         <v/>
       </c>
       <c r="B309" t="str">
-        <v>06285119000446;22122610671100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610673100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="310">
@@ -2834,7 +2837,7 @@
         <v/>
       </c>
       <c r="B310" t="str">
-        <v>06285119000446;22122610673100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610685100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="311">
@@ -2842,7 +2845,7 @@
         <v/>
       </c>
       <c r="B311" t="str">
-        <v>06285119000446;22122610685100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610691100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="312">
@@ -2850,7 +2853,7 @@
         <v/>
       </c>
       <c r="B312" t="str">
-        <v>06285119000446;22122610691100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610682100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="313">
@@ -2858,7 +2861,7 @@
         <v/>
       </c>
       <c r="B313" t="str">
-        <v>06285119000446;22122610682100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610692100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="314">
@@ -2866,7 +2869,7 @@
         <v/>
       </c>
       <c r="B314" t="str">
-        <v>06285119000446;22122610692100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610689100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="315">
@@ -2874,7 +2877,7 @@
         <v/>
       </c>
       <c r="B315" t="str">
-        <v>06285119000446;22122610689100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610662100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="316">
@@ -2882,7 +2885,7 @@
         <v/>
       </c>
       <c r="B316" t="str">
-        <v>06285119000446;22122610662100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610666100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="317">
@@ -2890,7 +2893,7 @@
         <v/>
       </c>
       <c r="B317" t="str">
-        <v>06285119000446;22122610666100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610677100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="318">
@@ -2898,7 +2901,7 @@
         <v/>
       </c>
       <c r="B318" t="str">
-        <v>06285119000446;22122610677100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610684100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="319">
@@ -2906,7 +2909,7 @@
         <v/>
       </c>
       <c r="B319" t="str">
-        <v>06285119000446;22122610684100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610639100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="320">
@@ -2914,7 +2917,7 @@
         <v/>
       </c>
       <c r="B320" t="str">
-        <v>06285119000446;22122610639100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610646100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="321">
@@ -2922,7 +2925,7 @@
         <v/>
       </c>
       <c r="B321" t="str">
-        <v>06285119000446;22122610646100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610636100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="322">
@@ -2930,7 +2933,7 @@
         <v/>
       </c>
       <c r="B322" t="str">
-        <v>06285119000446;22122610636100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610655100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="323">
@@ -2938,7 +2941,7 @@
         <v/>
       </c>
       <c r="B323" t="str">
-        <v>06285119000446;22122610655100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610697100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="324">
@@ -2946,7 +2949,7 @@
         <v/>
       </c>
       <c r="B324" t="str">
-        <v>06285119000446;22122610697100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610681100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="325">
@@ -2954,7 +2957,7 @@
         <v/>
       </c>
       <c r="B325" t="str">
-        <v>06285119000446;22122610681100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610667100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="326">
@@ -2962,7 +2965,7 @@
         <v/>
       </c>
       <c r="B326" t="str">
-        <v>06285119000446;22122610667100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610638100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="327">
@@ -2970,7 +2973,7 @@
         <v/>
       </c>
       <c r="B327" t="str">
-        <v>06285119000446;22122610638100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610641100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="328">
@@ -2978,7 +2981,7 @@
         <v/>
       </c>
       <c r="B328" t="str">
-        <v>06285119000446;22122610641100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610635100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="329">
@@ -2986,7 +2989,7 @@
         <v/>
       </c>
       <c r="B329" t="str">
-        <v>06285119000446;22122610635100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610658100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="330">
@@ -2994,7 +2997,7 @@
         <v/>
       </c>
       <c r="B330" t="str">
-        <v>06285119000446;22122610658100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610664100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="331">
@@ -3002,7 +3005,7 @@
         <v/>
       </c>
       <c r="B331" t="str">
-        <v>06285119000446;22122610664100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610665100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="332">
@@ -3010,7 +3013,7 @@
         <v/>
       </c>
       <c r="B332" t="str">
-        <v>06285119000446;22122610665100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610676100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="333">
@@ -3018,7 +3021,7 @@
         <v/>
       </c>
       <c r="B333" t="str">
-        <v>06285119000446;22122610676100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269619100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="334">
@@ -3026,7 +3029,7 @@
         <v/>
       </c>
       <c r="B334" t="str">
-        <v>06285119000446;2212269619100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269620100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="335">
@@ -3034,7 +3037,7 @@
         <v/>
       </c>
       <c r="B335" t="str">
-        <v>06285119000446;2212269620100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269571100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="336">
@@ -3042,7 +3045,7 @@
         <v/>
       </c>
       <c r="B336" t="str">
-        <v>06285119000446;2212269571100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269591100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="337">
@@ -3050,7 +3053,7 @@
         <v/>
       </c>
       <c r="B337" t="str">
-        <v>06285119000446;2212269591100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269429100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="338">
@@ -3058,7 +3061,7 @@
         <v/>
       </c>
       <c r="B338" t="str">
-        <v>06285119000446;2212269429100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269604100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="339">
@@ -3066,7 +3069,7 @@
         <v/>
       </c>
       <c r="B339" t="str">
-        <v>06285119000446;2212269604100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269511100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="340">
@@ -3074,7 +3077,7 @@
         <v/>
       </c>
       <c r="B340" t="str">
-        <v>06285119000446;2212269511100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269528100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="341">
@@ -3082,7 +3085,7 @@
         <v/>
       </c>
       <c r="B341" t="str">
-        <v>06285119000446;2212269528100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269541100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="342">
@@ -3090,7 +3093,7 @@
         <v/>
       </c>
       <c r="B342" t="str">
-        <v>06285119000446;2212269541100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269557100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="343">
@@ -3098,7 +3101,7 @@
         <v/>
       </c>
       <c r="B343" t="str">
-        <v>06285119000446;2212269557100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269558100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="344">
@@ -3106,7 +3109,7 @@
         <v/>
       </c>
       <c r="B344" t="str">
-        <v>06285119000446;2212269558100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269538100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="345">
@@ -3114,7 +3117,7 @@
         <v/>
       </c>
       <c r="B345" t="str">
-        <v>06285119000446;2212269538100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269529100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="346">
@@ -3122,7 +3125,7 @@
         <v/>
       </c>
       <c r="B346" t="str">
-        <v>06285119000446;2212269529100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269491100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="347">
@@ -3130,7 +3133,7 @@
         <v/>
       </c>
       <c r="B347" t="str">
-        <v>06285119000446;2212269491100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269605100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="348">
@@ -3138,7 +3141,7 @@
         <v/>
       </c>
       <c r="B348" t="str">
-        <v>06285119000446;2212269605100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269430100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="349">
@@ -3146,7 +3149,7 @@
         <v/>
       </c>
       <c r="B349" t="str">
-        <v>06285119000446;2212269430100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269592100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="350">
@@ -3154,7 +3157,7 @@
         <v/>
       </c>
       <c r="B350" t="str">
-        <v>06285119000446;2212269592100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269572100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="351">
@@ -3162,7 +3165,7 @@
         <v/>
       </c>
       <c r="B351" t="str">
-        <v>06285119000446;2212269572100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269621100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="352">
@@ -3170,7 +3173,7 @@
         <v/>
       </c>
       <c r="B352" t="str">
-        <v>06285119000446;2212269621100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269607100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="353">
@@ -3178,7 +3181,7 @@
         <v/>
       </c>
       <c r="B353" t="str">
-        <v>06285119000446;2212269607100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269526100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="354">
@@ -3186,7 +3189,7 @@
         <v/>
       </c>
       <c r="B354" t="str">
-        <v>06285119000446;2212269526100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269539100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="355">
@@ -3194,7 +3197,7 @@
         <v/>
       </c>
       <c r="B355" t="str">
-        <v>06285119000446;2212269539100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269559100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="356">
@@ -3202,7 +3205,7 @@
         <v/>
       </c>
       <c r="B356" t="str">
-        <v>06285119000446;2212269559100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269490100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="357">
@@ -3210,7 +3213,7 @@
         <v/>
       </c>
       <c r="B357" t="str">
-        <v>06285119000446;2212269490100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269573100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="358">
@@ -3218,7 +3221,7 @@
         <v/>
       </c>
       <c r="B358" t="str">
-        <v>06285119000446;2212269573100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269581100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="359">
@@ -3226,7 +3229,7 @@
         <v/>
       </c>
       <c r="B359" t="str">
-        <v>06285119000446;2212269581100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269593100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="360">
@@ -3234,7 +3237,7 @@
         <v/>
       </c>
       <c r="B360" t="str">
-        <v>06285119000446;2212269593100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269431100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="361">
@@ -3242,7 +3245,7 @@
         <v/>
       </c>
       <c r="B361" t="str">
-        <v>06285119000446;2212269431100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269608100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="362">
@@ -3250,7 +3253,7 @@
         <v/>
       </c>
       <c r="B362" t="str">
-        <v>06285119000446;2212269608100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269612100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="363">
@@ -3258,7 +3261,7 @@
         <v/>
       </c>
       <c r="B363" t="str">
-        <v>06285119000446;2212269612100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269484100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="364">
@@ -3266,7 +3269,7 @@
         <v/>
       </c>
       <c r="B364" t="str">
-        <v>06285119000446;2212269484100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269527100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="365">
@@ -3274,7 +3277,7 @@
         <v/>
       </c>
       <c r="B365" t="str">
-        <v>06285119000446;2212269527100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269540100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="366">
@@ -3282,7 +3285,7 @@
         <v/>
       </c>
       <c r="B366" t="str">
-        <v>06285119000446;2212269540100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269560100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="367">
@@ -3290,7 +3293,7 @@
         <v/>
       </c>
       <c r="B367" t="str">
-        <v>06285119000446;2212269560100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269574100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="368">
@@ -3298,7 +3301,7 @@
         <v/>
       </c>
       <c r="B368" t="str">
-        <v>06285119000446;2212269574100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269582100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="369">
@@ -3306,7 +3309,7 @@
         <v/>
       </c>
       <c r="B369" t="str">
-        <v>06285119000446;2212269582100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269594100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="370">
@@ -3314,7 +3317,7 @@
         <v/>
       </c>
       <c r="B370" t="str">
-        <v>06285119000446;2212269594100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269432100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="371">
@@ -3322,7 +3325,7 @@
         <v/>
       </c>
       <c r="B371" t="str">
-        <v>06285119000446;2212269432100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269600100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="372">
@@ -3330,7 +3333,7 @@
         <v/>
       </c>
       <c r="B372" t="str">
-        <v>06285119000446;2212269600100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269613100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="373">
@@ -3338,7 +3341,7 @@
         <v/>
       </c>
       <c r="B373" t="str">
-        <v>06285119000446;2212269613100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269601100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="374">
@@ -3346,7 +3349,7 @@
         <v/>
       </c>
       <c r="B374" t="str">
-        <v>06285119000446;2212269601100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269602100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="375">
@@ -3354,7 +3357,7 @@
         <v/>
       </c>
       <c r="B375" t="str">
-        <v>06285119000446;2212269602100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269577100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="376">
@@ -3362,7 +3365,7 @@
         <v/>
       </c>
       <c r="B376" t="str">
-        <v>06285119000446;2212269577100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269588100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="377">
@@ -3370,7 +3373,7 @@
         <v/>
       </c>
       <c r="B377" t="str">
-        <v>06285119000446;2212269588100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269595100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="378">
@@ -3378,7 +3381,7 @@
         <v/>
       </c>
       <c r="B378" t="str">
-        <v>06285119000446;2212269595100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269433100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="379">
@@ -3386,7 +3389,7 @@
         <v/>
       </c>
       <c r="B379" t="str">
-        <v>06285119000446;2212269433100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269485100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="380">
@@ -3394,7 +3397,7 @@
         <v/>
       </c>
       <c r="B380" t="str">
-        <v>06285119000446;2212269485100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269523100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="381">
@@ -3402,7 +3405,7 @@
         <v/>
       </c>
       <c r="B381" t="str">
-        <v>06285119000446;2212269523100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269535100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="382">
@@ -3410,7 +3413,7 @@
         <v/>
       </c>
       <c r="B382" t="str">
-        <v>06285119000446;2212269535100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269561100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="383">
@@ -3418,7 +3421,7 @@
         <v/>
       </c>
       <c r="B383" t="str">
-        <v>06285119000446;2212269561100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610637100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="384">
@@ -3426,7 +3429,7 @@
         <v/>
       </c>
       <c r="B384" t="str">
-        <v>06285119000446;22122610637100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610696100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="385">
@@ -3434,7 +3437,7 @@
         <v/>
       </c>
       <c r="B385" t="str">
-        <v>06285119000446;22122610696100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610687100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="386">
@@ -3442,7 +3445,7 @@
         <v/>
       </c>
       <c r="B386" t="str">
-        <v>06285119000446;22122610687100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610678100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="387">
@@ -3450,7 +3453,7 @@
         <v/>
       </c>
       <c r="B387" t="str">
-        <v>06285119000446;22122610678100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610675100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="388">
@@ -3458,7 +3461,7 @@
         <v/>
       </c>
       <c r="B388" t="str">
-        <v>06285119000446;22122610675100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610670100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="389">
@@ -3466,7 +3469,7 @@
         <v/>
       </c>
       <c r="B389" t="str">
-        <v>06285119000446;22122610670100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610632100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="390">
@@ -3474,7 +3477,7 @@
         <v/>
       </c>
       <c r="B390" t="str">
-        <v>06285119000446;22122610632100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610657100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="391">
@@ -3482,7 +3485,7 @@
         <v/>
       </c>
       <c r="B391" t="str">
-        <v>06285119000446;22122610657100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610651100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="392">
@@ -3490,7 +3493,7 @@
         <v/>
       </c>
       <c r="B392" t="str">
-        <v>06285119000446;22122610651100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610642100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="393">
@@ -3498,7 +3501,7 @@
         <v/>
       </c>
       <c r="B393" t="str">
-        <v>06285119000446;22122610642100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610631100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="394">
@@ -3506,7 +3509,7 @@
         <v/>
       </c>
       <c r="B394" t="str">
-        <v>06285119000446;22122610631100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610650100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="395">
@@ -3514,7 +3517,7 @@
         <v/>
       </c>
       <c r="B395" t="str">
-        <v>06285119000446;22122610650100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610645100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="396">
@@ -3522,7 +3525,7 @@
         <v/>
       </c>
       <c r="B396" t="str">
-        <v>06285119000446;22122610645100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610601100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="397">
@@ -3530,7 +3533,7 @@
         <v/>
       </c>
       <c r="B397" t="str">
-        <v>06285119000446;22122610601100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610679100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="398">
@@ -3538,7 +3541,7 @@
         <v/>
       </c>
       <c r="B398" t="str">
-        <v>06285119000446;22122610679100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610680100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="399">
@@ -3546,7 +3549,7 @@
         <v/>
       </c>
       <c r="B399" t="str">
-        <v>06285119000446;22122610680100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610672100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="400">
@@ -3554,7 +3557,7 @@
         <v/>
       </c>
       <c r="B400" t="str">
-        <v>06285119000446;22122610672100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610630100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="401">
@@ -3562,7 +3565,7 @@
         <v/>
       </c>
       <c r="B401" t="str">
-        <v>06285119000446;22122610630100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610695100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="402">
@@ -3570,7 +3573,7 @@
         <v/>
       </c>
       <c r="B402" t="str">
-        <v>06285119000446;22122610695100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610686100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="403">
@@ -3578,7 +3581,7 @@
         <v/>
       </c>
       <c r="B403" t="str">
-        <v>06285119000446;22122610686100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269603100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="404">
@@ -3586,7 +3589,7 @@
         <v/>
       </c>
       <c r="B404" t="str">
-        <v>06285119000446;2212269603100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269599100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="405">
@@ -3594,7 +3597,7 @@
         <v/>
       </c>
       <c r="B405" t="str">
-        <v>06285119000446;2212269599100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269563100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="406">
@@ -3602,7 +3605,7 @@
         <v/>
       </c>
       <c r="B406" t="str">
-        <v>06285119000446;2212269563100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269536100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="407">
@@ -3610,7 +3613,7 @@
         <v/>
       </c>
       <c r="B407" t="str">
-        <v>06285119000446;2212269536100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269524100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="408">
@@ -3618,7 +3621,7 @@
         <v/>
       </c>
       <c r="B408" t="str">
-        <v>06285119000446;2212269524100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269486100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="409">
@@ -3626,7 +3629,7 @@
         <v/>
       </c>
       <c r="B409" t="str">
-        <v>06285119000446;2212269486100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269434100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="410">
@@ -3634,7 +3637,7 @@
         <v/>
       </c>
       <c r="B410" t="str">
-        <v>06285119000446;2212269434100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269597100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="411">
@@ -3642,7 +3645,7 @@
         <v/>
       </c>
       <c r="B411" t="str">
-        <v>06285119000446;2212269597100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269589100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="412">
@@ -3650,7 +3653,7 @@
         <v/>
       </c>
       <c r="B412" t="str">
-        <v>06285119000446;2212269589100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269578100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="413">
@@ -3658,7 +3661,7 @@
         <v/>
       </c>
       <c r="B413" t="str">
-        <v>06285119000446;2212269578100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269590100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="414">
@@ -3666,7 +3669,7 @@
         <v/>
       </c>
       <c r="B414" t="str">
-        <v>06285119000446;2212269590100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269598100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="415">
@@ -3674,7 +3677,7 @@
         <v/>
       </c>
       <c r="B415" t="str">
-        <v>06285119000446;2212269598100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269525100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="416">
@@ -3682,7 +3685,7 @@
         <v/>
       </c>
       <c r="B416" t="str">
-        <v>06285119000446;2212269525100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269537100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="417">
@@ -3690,7 +3693,7 @@
         <v/>
       </c>
       <c r="B417" t="str">
-        <v>06285119000446;2212269537100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269564100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="418">
@@ -3698,7 +3701,7 @@
         <v/>
       </c>
       <c r="B418" t="str">
-        <v>06285119000446;2212269564100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269579100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="419">
@@ -3706,7 +3709,7 @@
         <v/>
       </c>
       <c r="B419" t="str">
-        <v>06285119000446;2212269579100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269609100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="420">
@@ -3714,7 +3717,7 @@
         <v/>
       </c>
       <c r="B420" t="str">
-        <v>06285119000446;2212269609100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269610100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="421">
@@ -3722,7 +3725,7 @@
         <v/>
       </c>
       <c r="B421" t="str">
-        <v>06285119000446;2212269610100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269611100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="422">
@@ -3730,7 +3733,7 @@
         <v/>
       </c>
       <c r="B422" t="str">
-        <v>06285119000446;2212269611100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269487100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="423">
@@ -3738,7 +3741,7 @@
         <v/>
       </c>
       <c r="B423" t="str">
-        <v>06285119000446;2212269487100;11221216;16/12/2024</v>
+        <v>06285119000446;221226249100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="424">
@@ -3746,7 +3749,7 @@
         <v/>
       </c>
       <c r="B424" t="str">
-        <v>06285119000446;221226249100;11221216;16/12/2024</v>
+        <v>06285119000446;221226256100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="425">
@@ -3754,7 +3757,7 @@
         <v/>
       </c>
       <c r="B425" t="str">
-        <v>06285119000446;221226256100;11221216;16/12/2024</v>
+        <v>06285119000446;221226263100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="426">
@@ -3762,28 +3765,28 @@
         <v/>
       </c>
       <c r="B426" t="str">
-        <v>06285119000446;221226263100;11221216;16/12/2024</v>
+        <v>06285119000446;221226270100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="str">
         <v/>
       </c>
-      <c r="B427" t="str">
-        <v>06285119000446;221226270100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428" t="str">
         <v/>
       </c>
+      <c r="B428" t="str">
+        <v>06285119000446;221226184100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="str">
         <v/>
       </c>
       <c r="B429" t="str">
-        <v>06285119000446;221226184100;11221216;16/12/2024</v>
+        <v>06285119000446;221226242100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="430">
@@ -3791,7 +3794,7 @@
         <v/>
       </c>
       <c r="B430" t="str">
-        <v>06285119000446;221226242100;11221216;16/12/2024</v>
+        <v>06285119000446;221226156100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="431">
@@ -3799,28 +3802,28 @@
         <v/>
       </c>
       <c r="B431" t="str">
-        <v>06285119000446;221226156100;11221216;16/12/2024</v>
+        <v>06285119000446;221226163100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="str">
         <v/>
       </c>
-      <c r="B432" t="str">
-        <v>06285119000446;221226163100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="str">
         <v/>
       </c>
+      <c r="B433" t="str">
+        <v>06285119000446;221226271100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="str">
         <v/>
       </c>
       <c r="B434" t="str">
-        <v>06285119000446;221226271100;11221216;16/12/2024</v>
+        <v>06285119000446;221226264100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="435">
@@ -3828,7 +3831,7 @@
         <v/>
       </c>
       <c r="B435" t="str">
-        <v>06285119000446;221226264100;11221216;16/12/2024</v>
+        <v>06285119000446;221226257100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="436">
@@ -3836,7 +3839,7 @@
         <v/>
       </c>
       <c r="B436" t="str">
-        <v>06285119000446;221226257100;11221216;16/12/2024</v>
+        <v>06285119000446;221226254100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="437">
@@ -3844,16 +3847,13 @@
         <v/>
       </c>
       <c r="B437" t="str">
-        <v>06285119000446;221226254100;11221216;16/12/2024</v>
+        <v>06285119000446;221226243100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="str">
         <v/>
       </c>
-      <c r="B438" t="str">
-        <v>06285119000446;221226243100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="439">
       <c r="A439" t="str">
@@ -3864,13 +3864,16 @@
       <c r="A440" t="str">
         <v/>
       </c>
+      <c r="B440" t="str">
+        <v>06285119000446;221226185100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="str">
         <v/>
       </c>
       <c r="B441" t="str">
-        <v>06285119000446;221226185100;11221216;16/12/2024</v>
+        <v>06285119000446;221226157100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="442">
@@ -3878,7 +3881,7 @@
         <v/>
       </c>
       <c r="B442" t="str">
-        <v>06285119000446;221226157100;11221216;16/12/2024</v>
+        <v>06285119000446;221226164100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="443">
@@ -3886,7 +3889,7 @@
         <v/>
       </c>
       <c r="B443" t="str">
-        <v>06285119000446;221226164100;11221216;16/12/2024</v>
+        <v>06285119000446;221226253100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="444">
@@ -3894,7 +3897,7 @@
         <v/>
       </c>
       <c r="B444" t="str">
-        <v>06285119000446;221226253100;11221216;16/12/2024</v>
+        <v>06285119000446;221226262100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="445">
@@ -3902,7 +3905,7 @@
         <v/>
       </c>
       <c r="B445" t="str">
-        <v>06285119000446;221226262100;11221216;16/12/2024</v>
+        <v>06285119000446;221226269100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="446">
@@ -3910,7 +3913,7 @@
         <v/>
       </c>
       <c r="B446" t="str">
-        <v>06285119000446;221226269100;11221216;16/12/2024</v>
+        <v>06285119000446;221226183100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="447">
@@ -3918,7 +3921,7 @@
         <v/>
       </c>
       <c r="B447" t="str">
-        <v>06285119000446;221226183100;11221216;16/12/2024</v>
+        <v>06285119000446;221226241100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="448">
@@ -3926,28 +3929,28 @@
         <v/>
       </c>
       <c r="B448" t="str">
-        <v>06285119000446;221226241100;11221216;16/12/2024</v>
+        <v>06285119000446;221226248100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="str">
         <v/>
       </c>
-      <c r="B449" t="str">
-        <v>06285119000446;221226248100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="450">
       <c r="A450" t="str">
         <v/>
       </c>
+      <c r="B450" t="str">
+        <v>06285119000446;221226155100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="str">
         <v/>
       </c>
       <c r="B451" t="str">
-        <v>06285119000446;221226155100;11221216;16/12/2024</v>
+        <v>06285119000446;221226162100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="452">
@@ -3955,16 +3958,13 @@
         <v/>
       </c>
       <c r="B452" t="str">
-        <v>06285119000446;221226162100;11221216;16/12/2024</v>
+        <v>06285119000446;221226169100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="str">
         <v/>
       </c>
-      <c r="B453" t="str">
-        <v>06285119000446;221226169100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="454">
       <c r="A454" t="str">
@@ -3975,13 +3975,16 @@
       <c r="A455" t="str">
         <v/>
       </c>
+      <c r="B455" t="str">
+        <v>06285119000446;221226165100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="str">
         <v/>
       </c>
       <c r="B456" t="str">
-        <v>06285119000446;221226165100;11221216;16/12/2024</v>
+        <v>06285119000446;221226158100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="457">
@@ -3989,7 +3992,7 @@
         <v/>
       </c>
       <c r="B457" t="str">
-        <v>06285119000446;221226158100;11221216;16/12/2024</v>
+        <v>06285119000446;221226255100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="458">
@@ -3997,7 +4000,7 @@
         <v/>
       </c>
       <c r="B458" t="str">
-        <v>06285119000446;221226255100;11221216;16/12/2024</v>
+        <v>06285119000446;221226244100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="459">
@@ -4005,7 +4008,7 @@
         <v/>
       </c>
       <c r="B459" t="str">
-        <v>06285119000446;221226244100;11221216;16/12/2024</v>
+        <v>06285119000446;221226186100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="460">
@@ -4013,7 +4016,7 @@
         <v/>
       </c>
       <c r="B460" t="str">
-        <v>06285119000446;221226186100;11221216;16/12/2024</v>
+        <v>06285119000446;221226258100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="461">
@@ -4021,7 +4024,7 @@
         <v/>
       </c>
       <c r="B461" t="str">
-        <v>06285119000446;221226258100;11221216;16/12/2024</v>
+        <v>06285119000446;221226265100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="462">
@@ -4029,7 +4032,7 @@
         <v/>
       </c>
       <c r="B462" t="str">
-        <v>06285119000446;221226265100;11221216;16/12/2024</v>
+        <v>06285119000446;221226272100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="463">
@@ -4037,7 +4040,7 @@
         <v/>
       </c>
       <c r="B463" t="str">
-        <v>06285119000446;221226272100;11221216;16/12/2024</v>
+        <v>06285119000446;221226152100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="464">
@@ -4045,7 +4048,7 @@
         <v/>
       </c>
       <c r="B464" t="str">
-        <v>06285119000446;221226152100;11221216;16/12/2024</v>
+        <v>06285119000446;221226159100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="465">
@@ -4053,28 +4056,28 @@
         <v/>
       </c>
       <c r="B465" t="str">
-        <v>06285119000446;221226159100;11221216;16/12/2024</v>
+        <v>06285119000446;221226166100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="str">
         <v/>
       </c>
-      <c r="B466" t="str">
-        <v>06285119000446;221226166100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="467">
       <c r="A467" t="str">
         <v/>
       </c>
+      <c r="B467" t="str">
+        <v>06285119000446;221226180100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="str">
         <v/>
       </c>
       <c r="B468" t="str">
-        <v>06285119000446;221226180100;11221216;16/12/2024</v>
+        <v>06285119000446;221226236100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="469">
@@ -4082,7 +4085,7 @@
         <v/>
       </c>
       <c r="B469" t="str">
-        <v>06285119000446;221226236100;11221216;16/12/2024</v>
+        <v>06285119000446;221226259100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="470">
@@ -4090,7 +4093,7 @@
         <v/>
       </c>
       <c r="B470" t="str">
-        <v>06285119000446;221226259100;11221216;16/12/2024</v>
+        <v>06285119000446;221226250100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="471">
@@ -4098,7 +4101,7 @@
         <v/>
       </c>
       <c r="B471" t="str">
-        <v>06285119000446;221226250100;11221216;16/12/2024</v>
+        <v>06285119000446;221226245100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="472">
@@ -4106,28 +4109,28 @@
         <v/>
       </c>
       <c r="B472" t="str">
-        <v>06285119000446;221226245100;11221216;16/12/2024</v>
+        <v>06285119000446;221226266100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="str">
         <v/>
       </c>
-      <c r="B473" t="str">
-        <v>06285119000446;221226266100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="474">
       <c r="A474" t="str">
         <v/>
       </c>
+      <c r="B474" t="str">
+        <v>06285119000446;221226168100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="str">
         <v/>
       </c>
       <c r="B475" t="str">
-        <v>06285119000446;221226168100;11221216;16/12/2024</v>
+        <v>06285119000446;221226161100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="476">
@@ -4135,7 +4138,7 @@
         <v/>
       </c>
       <c r="B476" t="str">
-        <v>06285119000446;221226161100;11221216;16/12/2024</v>
+        <v>06285119000446;221226154100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="477">
@@ -4143,7 +4146,7 @@
         <v/>
       </c>
       <c r="B477" t="str">
-        <v>06285119000446;221226154100;11221216;16/12/2024</v>
+        <v>06285119000446;221226267100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="478">
@@ -4151,7 +4154,7 @@
         <v/>
       </c>
       <c r="B478" t="str">
-        <v>06285119000446;221226267100;11221216;16/12/2024</v>
+        <v>06285119000446;221226246100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="479">
@@ -4159,7 +4162,7 @@
         <v/>
       </c>
       <c r="B479" t="str">
-        <v>06285119000446;221226246100;11221216;16/12/2024</v>
+        <v>06285119000446;221226235100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="480">
@@ -4167,7 +4170,7 @@
         <v/>
       </c>
       <c r="B480" t="str">
-        <v>06285119000446;221226235100;11221216;16/12/2024</v>
+        <v>06285119000446;221226167100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="481">
@@ -4175,7 +4178,7 @@
         <v/>
       </c>
       <c r="B481" t="str">
-        <v>06285119000446;221226167100;11221216;16/12/2024</v>
+        <v>06285119000446;221226153100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="482">
@@ -4183,7 +4186,7 @@
         <v/>
       </c>
       <c r="B482" t="str">
-        <v>06285119000446;221226153100;11221216;16/12/2024</v>
+        <v>06285119000446;221226160100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="483">
@@ -4191,7 +4194,7 @@
         <v/>
       </c>
       <c r="B483" t="str">
-        <v>06285119000446;221226160100;11221216;16/12/2024</v>
+        <v>06285119000446;221226252100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="484">
@@ -4199,7 +4202,7 @@
         <v/>
       </c>
       <c r="B484" t="str">
-        <v>06285119000446;221226252100;11221216;16/12/2024</v>
+        <v>06285119000446;221226261100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="485">
@@ -4207,7 +4210,7 @@
         <v/>
       </c>
       <c r="B485" t="str">
-        <v>06285119000446;221226261100;11221216;16/12/2024</v>
+        <v>06285119000446;221226268100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="486">
@@ -4215,7 +4218,7 @@
         <v/>
       </c>
       <c r="B486" t="str">
-        <v>06285119000446;221226268100;11221216;16/12/2024</v>
+        <v>06285119000446;221226182100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="487">
@@ -4223,7 +4226,7 @@
         <v/>
       </c>
       <c r="B487" t="str">
-        <v>06285119000446;221226182100;11221216;16/12/2024</v>
+        <v>06285119000446;221226240100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="488">
@@ -4231,7 +4234,7 @@
         <v/>
       </c>
       <c r="B488" t="str">
-        <v>06285119000446;221226240100;11221216;16/12/2024</v>
+        <v>06285119000446;221226247100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="489">
@@ -4239,7 +4242,7 @@
         <v/>
       </c>
       <c r="B489" t="str">
-        <v>06285119000446;221226247100;11221216;16/12/2024</v>
+        <v>06285119000446;221226260100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="490">
@@ -4247,7 +4250,7 @@
         <v/>
       </c>
       <c r="B490" t="str">
-        <v>06285119000446;221226260100;11221216;16/12/2024</v>
+        <v>06285119000446;221226251100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="491">
@@ -4255,28 +4258,28 @@
         <v/>
       </c>
       <c r="B491" t="str">
-        <v>06285119000446;221226251100;11221216;16/12/2024</v>
+        <v>06285119000446;221226181100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="str">
         <v/>
       </c>
-      <c r="B492" t="str">
-        <v>06285119000446;221226181100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="493">
       <c r="A493" t="str">
         <v/>
       </c>
+      <c r="B493" t="str">
+        <v>06285119000446;221226276100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="str">
         <v/>
       </c>
       <c r="B494" t="str">
-        <v>06285119000446;221226276100;11221216;16/12/2024</v>
+        <v>06285119000446;221226344100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="495">
@@ -4284,7 +4287,7 @@
         <v/>
       </c>
       <c r="B495" t="str">
-        <v>06285119000446;221226344100;11221216;16/12/2024</v>
+        <v>06285119000446;221226334100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="496">
@@ -4292,7 +4295,7 @@
         <v/>
       </c>
       <c r="B496" t="str">
-        <v>06285119000446;221226334100;11221216;16/12/2024</v>
+        <v>06285119000446;221226327100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="497">
@@ -4300,7 +4303,7 @@
         <v/>
       </c>
       <c r="B497" t="str">
-        <v>06285119000446;221226327100;11221216;16/12/2024</v>
+        <v>06285119000446;221226318100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="498">
@@ -4308,7 +4311,7 @@
         <v/>
       </c>
       <c r="B498" t="str">
-        <v>06285119000446;221226318100;11221216;16/12/2024</v>
+        <v>06285119000446;221226311100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="499">
@@ -4316,7 +4319,7 @@
         <v/>
       </c>
       <c r="B499" t="str">
-        <v>06285119000446;221226311100;11221216;16/12/2024</v>
+        <v>06285119000446;221226304100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="500">
@@ -4324,7 +4327,7 @@
         <v/>
       </c>
       <c r="B500" t="str">
-        <v>06285119000446;221226304100;11221216;16/12/2024</v>
+        <v>06285119000446;221226297100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="501">
@@ -4332,7 +4335,7 @@
         <v/>
       </c>
       <c r="B501" t="str">
-        <v>06285119000446;221226297100;11221216;16/12/2024</v>
+        <v>06285119000446;221226290100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="502">
@@ -4340,7 +4343,7 @@
         <v/>
       </c>
       <c r="B502" t="str">
-        <v>06285119000446;221226290100;11221216;16/12/2024</v>
+        <v>06285119000446;221226283100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="503">
@@ -4348,7 +4351,7 @@
         <v/>
       </c>
       <c r="B503" t="str">
-        <v>06285119000446;221226283100;11221216;16/12/2024</v>
+        <v>06285119000446;221226284100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="504">
@@ -4356,7 +4359,7 @@
         <v/>
       </c>
       <c r="B504" t="str">
-        <v>06285119000446;221226284100;11221216;16/12/2024</v>
+        <v>06285119000446;221226298100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="505">
@@ -4364,7 +4367,7 @@
         <v/>
       </c>
       <c r="B505" t="str">
-        <v>06285119000446;221226298100;11221216;16/12/2024</v>
+        <v>06285119000446;221226291100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="506">
@@ -4372,7 +4375,7 @@
         <v/>
       </c>
       <c r="B506" t="str">
-        <v>06285119000446;221226291100;11221216;16/12/2024</v>
+        <v>06285119000446;221226319100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="507">
@@ -4380,7 +4383,7 @@
         <v/>
       </c>
       <c r="B507" t="str">
-        <v>06285119000446;221226319100;11221216;16/12/2024</v>
+        <v>06285119000446;221226312100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="508">
@@ -4388,7 +4391,7 @@
         <v/>
       </c>
       <c r="B508" t="str">
-        <v>06285119000446;221226312100;11221216;16/12/2024</v>
+        <v>06285119000446;221226305100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="509">
@@ -4396,7 +4399,7 @@
         <v/>
       </c>
       <c r="B509" t="str">
-        <v>06285119000446;221226305100;11221216;16/12/2024</v>
+        <v>06285119000446;221226345100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="510">
@@ -4404,7 +4407,7 @@
         <v/>
       </c>
       <c r="B510" t="str">
-        <v>06285119000446;221226345100;11221216;16/12/2024</v>
+        <v>06285119000446;221226335100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="511">
@@ -4412,7 +4415,7 @@
         <v/>
       </c>
       <c r="B511" t="str">
-        <v>06285119000446;221226335100;11221216;16/12/2024</v>
+        <v>06285119000446;221226328100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="512">
@@ -4420,7 +4423,7 @@
         <v/>
       </c>
       <c r="B512" t="str">
-        <v>06285119000446;221226328100;11221216;16/12/2024</v>
+        <v>06285119000446;221226285100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="513">
@@ -4428,7 +4431,7 @@
         <v/>
       </c>
       <c r="B513" t="str">
-        <v>06285119000446;221226285100;11221216;16/12/2024</v>
+        <v>06285119000446;221226277100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="514">
@@ -4436,7 +4439,7 @@
         <v/>
       </c>
       <c r="B514" t="str">
-        <v>06285119000446;221226277100;11221216;16/12/2024</v>
+        <v>06285119000446;221226278100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="515">
@@ -4444,7 +4447,7 @@
         <v/>
       </c>
       <c r="B515" t="str">
-        <v>06285119000446;221226278100;11221216;16/12/2024</v>
+        <v>06285119000446;221226346100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="516">
@@ -4452,7 +4455,7 @@
         <v/>
       </c>
       <c r="B516" t="str">
-        <v>06285119000446;221226346100;11221216;16/12/2024</v>
+        <v>06285119000446;221226336100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="517">
@@ -4460,7 +4463,7 @@
         <v/>
       </c>
       <c r="B517" t="str">
-        <v>06285119000446;221226336100;11221216;16/12/2024</v>
+        <v>06285119000446;221226329100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="518">
@@ -4468,7 +4471,7 @@
         <v/>
       </c>
       <c r="B518" t="str">
-        <v>06285119000446;221226329100;11221216;16/12/2024</v>
+        <v>06285119000446;221226320100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="519">
@@ -4476,7 +4479,7 @@
         <v/>
       </c>
       <c r="B519" t="str">
-        <v>06285119000446;221226320100;11221216;16/12/2024</v>
+        <v>06285119000446;221226313100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="520">
@@ -4484,7 +4487,7 @@
         <v/>
       </c>
       <c r="B520" t="str">
-        <v>06285119000446;221226313100;11221216;16/12/2024</v>
+        <v>06285119000446;221226306100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="521">
@@ -4492,7 +4495,7 @@
         <v/>
       </c>
       <c r="B521" t="str">
-        <v>06285119000446;221226306100;11221216;16/12/2024</v>
+        <v>06285119000446;221226299100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="522">
@@ -4500,7 +4503,7 @@
         <v/>
       </c>
       <c r="B522" t="str">
-        <v>06285119000446;221226299100;11221216;16/12/2024</v>
+        <v>06285119000446;221226292100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="523">
@@ -4508,7 +4511,7 @@
         <v/>
       </c>
       <c r="B523" t="str">
-        <v>06285119000446;221226292100;11221216;16/12/2024</v>
+        <v>06285119000446;221226301100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="524">
@@ -4516,7 +4519,7 @@
         <v/>
       </c>
       <c r="B524" t="str">
-        <v>06285119000446;221226301100;11221216;16/12/2024</v>
+        <v>06285119000446;221226294100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="525">
@@ -4524,7 +4527,7 @@
         <v/>
       </c>
       <c r="B525" t="str">
-        <v>06285119000446;221226294100;11221216;16/12/2024</v>
+        <v>06285119000446;221226287100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="526">
@@ -4532,7 +4535,7 @@
         <v/>
       </c>
       <c r="B526" t="str">
-        <v>06285119000446;221226287100;11221216;16/12/2024</v>
+        <v>06285119000446;221226280100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="527">
@@ -4540,7 +4543,7 @@
         <v/>
       </c>
       <c r="B527" t="str">
-        <v>06285119000446;221226280100;11221216;16/12/2024</v>
+        <v>06285119000446;221226341100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="528">
@@ -4548,7 +4551,7 @@
         <v/>
       </c>
       <c r="B528" t="str">
-        <v>06285119000446;221226341100;11221216;16/12/2024</v>
+        <v>06285119000446;221226331100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="529">
@@ -4556,7 +4559,7 @@
         <v/>
       </c>
       <c r="B529" t="str">
-        <v>06285119000446;221226331100;11221216;16/12/2024</v>
+        <v>06285119000446;221226300100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="530">
@@ -4564,7 +4567,7 @@
         <v/>
       </c>
       <c r="B530" t="str">
-        <v>06285119000446;221226300100;11221216;16/12/2024</v>
+        <v>06285119000446;221226293100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="531">
@@ -4572,7 +4575,7 @@
         <v/>
       </c>
       <c r="B531" t="str">
-        <v>06285119000446;221226293100;11221216;16/12/2024</v>
+        <v>06285119000446;221226286100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="532">
@@ -4580,7 +4583,7 @@
         <v/>
       </c>
       <c r="B532" t="str">
-        <v>06285119000446;221226286100;11221216;16/12/2024</v>
+        <v>06285119000446;221226279100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="533">
@@ -4588,7 +4591,7 @@
         <v/>
       </c>
       <c r="B533" t="str">
-        <v>06285119000446;221226279100;11221216;16/12/2024</v>
+        <v>06285119000446;221226273100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="534">
@@ -4596,7 +4599,7 @@
         <v/>
       </c>
       <c r="B534" t="str">
-        <v>06285119000446;221226273100;11221216;16/12/2024</v>
+        <v>06285119000446;221226324100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="535">
@@ -4604,7 +4607,7 @@
         <v/>
       </c>
       <c r="B535" t="str">
-        <v>06285119000446;221226324100;11221216;16/12/2024</v>
+        <v>06285119000446;221226315100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="536">
@@ -4612,7 +4615,7 @@
         <v/>
       </c>
       <c r="B536" t="str">
-        <v>06285119000446;221226315100;11221216;16/12/2024</v>
+        <v>06285119000446;221226308100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="537">
@@ -4620,7 +4623,7 @@
         <v/>
       </c>
       <c r="B537" t="str">
-        <v>06285119000446;221226308100;11221216;16/12/2024</v>
+        <v>06285119000446;221226323100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="538">
@@ -4628,7 +4631,7 @@
         <v/>
       </c>
       <c r="B538" t="str">
-        <v>06285119000446;221226323100;11221216;16/12/2024</v>
+        <v>06285119000446;221226314100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="539">
@@ -4636,7 +4639,7 @@
         <v/>
       </c>
       <c r="B539" t="str">
-        <v>06285119000446;221226314100;11221216;16/12/2024</v>
+        <v>06285119000446;221226307100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="540">
@@ -4644,7 +4647,7 @@
         <v/>
       </c>
       <c r="B540" t="str">
-        <v>06285119000446;221226307100;11221216;16/12/2024</v>
+        <v>06285119000446;221226347100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="541">
@@ -4652,7 +4655,7 @@
         <v/>
       </c>
       <c r="B541" t="str">
-        <v>06285119000446;221226347100;11221216;16/12/2024</v>
+        <v>06285119000446;221226340100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="542">
@@ -4660,7 +4663,7 @@
         <v/>
       </c>
       <c r="B542" t="str">
-        <v>06285119000446;221226340100;11221216;16/12/2024</v>
+        <v>06285119000446;221226330100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="543">
@@ -4668,7 +4671,7 @@
         <v/>
       </c>
       <c r="B543" t="str">
-        <v>06285119000446;221226330100;11221216;16/12/2024</v>
+        <v>06285119000446;221226295100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="544">
@@ -4676,7 +4679,7 @@
         <v/>
       </c>
       <c r="B544" t="str">
-        <v>06285119000446;221226295100;11221216;16/12/2024</v>
+        <v>06285119000446;221226288100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="545">
@@ -4684,7 +4687,7 @@
         <v/>
       </c>
       <c r="B545" t="str">
-        <v>06285119000446;221226288100;11221216;16/12/2024</v>
+        <v>06285119000446;221226281100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="546">
@@ -4692,7 +4695,7 @@
         <v/>
       </c>
       <c r="B546" t="str">
-        <v>06285119000446;221226281100;11221216;16/12/2024</v>
+        <v>06285119000446;221226274100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="547">
@@ -4700,7 +4703,7 @@
         <v/>
       </c>
       <c r="B547" t="str">
-        <v>06285119000446;221226274100;11221216;16/12/2024</v>
+        <v>06285119000446;221226316100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="548">
@@ -4708,7 +4711,7 @@
         <v/>
       </c>
       <c r="B548" t="str">
-        <v>06285119000446;221226316100;11221216;16/12/2024</v>
+        <v>06285119000446;221226309100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="549">
@@ -4716,7 +4719,7 @@
         <v/>
       </c>
       <c r="B549" t="str">
-        <v>06285119000446;221226309100;11221216;16/12/2024</v>
+        <v>06285119000446;221226302100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="550">
@@ -4724,7 +4727,7 @@
         <v/>
       </c>
       <c r="B550" t="str">
-        <v>06285119000446;221226302100;11221216;16/12/2024</v>
+        <v>06285119000446;221226342100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="551">
@@ -4732,7 +4735,7 @@
         <v/>
       </c>
       <c r="B551" t="str">
-        <v>06285119000446;221226342100;11221216;16/12/2024</v>
+        <v>06285119000446;221226332100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="552">
@@ -4740,7 +4743,7 @@
         <v/>
       </c>
       <c r="B552" t="str">
-        <v>06285119000446;221226332100;11221216;16/12/2024</v>
+        <v>06285119000446;221226325100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="553">
@@ -4748,7 +4751,7 @@
         <v/>
       </c>
       <c r="B553" t="str">
-        <v>06285119000446;221226325100;11221216;16/12/2024</v>
+        <v>06285119000446;221226275100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="554">
@@ -4756,7 +4759,7 @@
         <v/>
       </c>
       <c r="B554" t="str">
-        <v>06285119000446;221226275100;11221216;16/12/2024</v>
+        <v>06285119000446;221226296100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="555">
@@ -4764,7 +4767,7 @@
         <v/>
       </c>
       <c r="B555" t="str">
-        <v>06285119000446;221226296100;11221216;16/12/2024</v>
+        <v>06285119000446;221226289100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="556">
@@ -4772,28 +4775,28 @@
         <v/>
       </c>
       <c r="B556" t="str">
-        <v>06285119000446;221226289100;11221216;16/12/2024</v>
+        <v>06285119000446;221226282100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="str">
         <v/>
       </c>
-      <c r="B557" t="str">
-        <v>06285119000446;221226282100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="558">
       <c r="A558" t="str">
         <v/>
       </c>
+      <c r="B558" t="str">
+        <v>06285119000446;221226310100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="str">
         <v/>
       </c>
       <c r="B559" t="str">
-        <v>06285119000446;221226310100;11221216;16/12/2024</v>
+        <v>06285119000446;221226303100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="560">
@@ -4801,7 +4804,7 @@
         <v/>
       </c>
       <c r="B560" t="str">
-        <v>06285119000446;221226303100;11221216;16/12/2024</v>
+        <v>06285119000446;221226343100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="561">
@@ -4809,7 +4812,7 @@
         <v/>
       </c>
       <c r="B561" t="str">
-        <v>06285119000446;221226343100;11221216;16/12/2024</v>
+        <v>06285119000446;221226333100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="562">
@@ -4817,7 +4820,7 @@
         <v/>
       </c>
       <c r="B562" t="str">
-        <v>06285119000446;221226333100;11221216;16/12/2024</v>
+        <v>06285119000446;221226326100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="563">
@@ -4825,7 +4828,7 @@
         <v/>
       </c>
       <c r="B563" t="str">
-        <v>06285119000446;221226326100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268633100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="564">
@@ -4833,7 +4836,7 @@
         <v/>
       </c>
       <c r="B564" t="str">
-        <v>06285119000446;2212268633100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610740100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="565">
@@ -4841,7 +4844,7 @@
         <v/>
       </c>
       <c r="B565" t="str">
-        <v>06285119000446;22122610740100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268616100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="566">
@@ -4849,7 +4852,7 @@
         <v/>
       </c>
       <c r="B566" t="str">
-        <v>06285119000446;2212268616100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268612100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="567">
@@ -4857,28 +4860,28 @@
         <v/>
       </c>
       <c r="B567" t="str">
-        <v>06285119000446;2212268612100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266123100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="str">
         <v/>
       </c>
-      <c r="B568" t="str">
-        <v>06285119000446;2212266123100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="569">
       <c r="A569" t="str">
         <v/>
       </c>
+      <c r="B569" t="str">
+        <v>06285119000446;2212268634100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="str">
         <v/>
       </c>
       <c r="B570" t="str">
-        <v>06285119000446;2212268634100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268635100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="571">
@@ -4886,7 +4889,7 @@
         <v/>
       </c>
       <c r="B571" t="str">
-        <v>06285119000446;2212268635100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268618100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="572">
@@ -4894,28 +4897,28 @@
         <v/>
       </c>
       <c r="B572" t="str">
-        <v>06285119000446;2212268618100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268546100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="str">
         <v/>
       </c>
-      <c r="B573" t="str">
-        <v>06285119000446;2212268546100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="574">
       <c r="A574" t="str">
         <v/>
       </c>
+      <c r="B574" t="str">
+        <v>06285119000446;2212269493100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="str">
         <v/>
       </c>
       <c r="B575" t="str">
-        <v>06285119000446;2212269493100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269654100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="576">
@@ -4923,7 +4926,7 @@
         <v/>
       </c>
       <c r="B576" t="str">
-        <v>06285119000446;2212269654100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269642100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="577">
@@ -4931,7 +4934,7 @@
         <v/>
       </c>
       <c r="B577" t="str">
-        <v>06285119000446;2212269642100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269645100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="578">
@@ -4939,7 +4942,7 @@
         <v/>
       </c>
       <c r="B578" t="str">
-        <v>06285119000446;2212269645100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269646100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="579">
@@ -4947,7 +4950,7 @@
         <v/>
       </c>
       <c r="B579" t="str">
-        <v>06285119000446;2212269646100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269648100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="580">
@@ -4955,7 +4958,7 @@
         <v/>
       </c>
       <c r="B580" t="str">
-        <v>06285119000446;2212269648100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269643100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="581">
@@ -4963,7 +4966,7 @@
         <v/>
       </c>
       <c r="B581" t="str">
-        <v>06285119000446;2212269643100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269647100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="582">
@@ -4971,7 +4974,7 @@
         <v/>
       </c>
       <c r="B582" t="str">
-        <v>06285119000446;2212269647100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269649100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="583">
@@ -4979,7 +4982,7 @@
         <v/>
       </c>
       <c r="B583" t="str">
-        <v>06285119000446;2212269649100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268588100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="584">
@@ -4987,7 +4990,7 @@
         <v/>
       </c>
       <c r="B584" t="str">
-        <v>06285119000446;2212268588100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269655100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="585">
@@ -4995,7 +4998,7 @@
         <v/>
       </c>
       <c r="B585" t="str">
-        <v>06285119000446;2212269655100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269496100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="586">
@@ -5003,7 +5006,7 @@
         <v/>
       </c>
       <c r="B586" t="str">
-        <v>06285119000446;2212269496100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610699100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="587">
@@ -5011,7 +5014,7 @@
         <v/>
       </c>
       <c r="B587" t="str">
-        <v>06285119000446;22122610699100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610698100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="588">
@@ -5019,7 +5022,7 @@
         <v/>
       </c>
       <c r="B588" t="str">
-        <v>06285119000446;22122610698100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269639100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="589">
@@ -5027,7 +5030,7 @@
         <v/>
       </c>
       <c r="B589" t="str">
-        <v>06285119000446;2212269639100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269640100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="590">
@@ -5035,7 +5038,7 @@
         <v/>
       </c>
       <c r="B590" t="str">
-        <v>06285119000446;2212269640100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610704100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="591">
@@ -5043,7 +5046,7 @@
         <v/>
       </c>
       <c r="B591" t="str">
-        <v>06285119000446;22122610704100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610705100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="592">
@@ -5051,7 +5054,7 @@
         <v/>
       </c>
       <c r="B592" t="str">
-        <v>06285119000446;22122610705100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610703100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="593">
@@ -5059,7 +5062,7 @@
         <v/>
       </c>
       <c r="B593" t="str">
-        <v>06285119000446;22122610703100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268595100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="594">
@@ -5067,7 +5070,7 @@
         <v/>
       </c>
       <c r="B594" t="str">
-        <v>06285119000446;2212268595100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268587100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="595">
@@ -5075,7 +5078,7 @@
         <v/>
       </c>
       <c r="B595" t="str">
-        <v>06285119000446;2212268587100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268599100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="596">
@@ -5083,7 +5086,7 @@
         <v/>
       </c>
       <c r="B596" t="str">
-        <v>06285119000446;2212268599100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268592100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="597">
@@ -5091,7 +5094,7 @@
         <v/>
       </c>
       <c r="B597" t="str">
-        <v>06285119000446;2212268592100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269635100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="598">
@@ -5099,7 +5102,7 @@
         <v/>
       </c>
       <c r="B598" t="str">
-        <v>06285119000446;2212269635100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269630100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="599">
@@ -5107,7 +5110,7 @@
         <v/>
       </c>
       <c r="B599" t="str">
-        <v>06285119000446;2212269630100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269629100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="600">
@@ -5115,7 +5118,7 @@
         <v/>
       </c>
       <c r="B600" t="str">
-        <v>06285119000446;2212269629100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269436100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="601">
@@ -5123,7 +5126,7 @@
         <v/>
       </c>
       <c r="B601" t="str">
-        <v>06285119000446;2212269436100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269626100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="602">
@@ -5131,7 +5134,7 @@
         <v/>
       </c>
       <c r="B602" t="str">
-        <v>06285119000446;2212269626100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610702100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="603">
@@ -5139,7 +5142,7 @@
         <v/>
       </c>
       <c r="B603" t="str">
-        <v>06285119000446;22122610702100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269439100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="604">
@@ -5147,7 +5150,7 @@
         <v/>
       </c>
       <c r="B604" t="str">
-        <v>06285119000446;2212269439100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269627100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="605">
@@ -5155,7 +5158,7 @@
         <v/>
       </c>
       <c r="B605" t="str">
-        <v>06285119000446;2212269627100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269628100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="606">
@@ -5163,7 +5166,7 @@
         <v/>
       </c>
       <c r="B606" t="str">
-        <v>06285119000446;2212269628100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268591100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="607">
@@ -5171,7 +5174,7 @@
         <v/>
       </c>
       <c r="B607" t="str">
-        <v>06285119000446;2212268591100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269644100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="608">
@@ -5179,7 +5182,7 @@
         <v/>
       </c>
       <c r="B608" t="str">
-        <v>06285119000446;2212269644100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269633100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="609">
@@ -5187,7 +5190,7 @@
         <v/>
       </c>
       <c r="B609" t="str">
-        <v>06285119000446;2212269633100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610744100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="610">
@@ -5195,7 +5198,7 @@
         <v/>
       </c>
       <c r="B610" t="str">
-        <v>06285119000446;22122610744100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269631100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="611">
@@ -5203,7 +5206,7 @@
         <v/>
       </c>
       <c r="B611" t="str">
-        <v>06285119000446;2212269631100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268590100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="612">
@@ -5211,7 +5214,7 @@
         <v/>
       </c>
       <c r="B612" t="str">
-        <v>06285119000446;2212268590100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269427100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="613">
@@ -5219,7 +5222,7 @@
         <v/>
       </c>
       <c r="B613" t="str">
-        <v>06285119000446;2212269427100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268589100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="614">
@@ -5227,7 +5230,7 @@
         <v/>
       </c>
       <c r="B614" t="str">
-        <v>06285119000446;2212268589100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268597100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="615">
@@ -5235,7 +5238,7 @@
         <v/>
       </c>
       <c r="B615" t="str">
-        <v>06285119000446;2212268597100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610743100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="616">
@@ -5243,7 +5246,7 @@
         <v/>
       </c>
       <c r="B616" t="str">
-        <v>06285119000446;22122610743100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269641100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="617">
@@ -5251,7 +5254,7 @@
         <v/>
       </c>
       <c r="B617" t="str">
-        <v>06285119000446;2212269641100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269636100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="618">
@@ -5259,7 +5262,7 @@
         <v/>
       </c>
       <c r="B618" t="str">
-        <v>06285119000446;2212269636100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610741100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="619">
@@ -5267,7 +5270,7 @@
         <v/>
       </c>
       <c r="B619" t="str">
-        <v>06285119000446;22122610741100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610742100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="620">
@@ -5275,7 +5278,7 @@
         <v/>
       </c>
       <c r="B620" t="str">
-        <v>06285119000446;22122610742100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269637100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="621">
@@ -5283,7 +5286,7 @@
         <v/>
       </c>
       <c r="B621" t="str">
-        <v>06285119000446;2212269637100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269638100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="622">
@@ -5291,7 +5294,7 @@
         <v/>
       </c>
       <c r="B622" t="str">
-        <v>06285119000446;2212269638100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269653100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="623">
@@ -5299,7 +5302,7 @@
         <v/>
       </c>
       <c r="B623" t="str">
-        <v>06285119000446;2212269653100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268611100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="624">
@@ -5307,7 +5310,7 @@
         <v/>
       </c>
       <c r="B624" t="str">
-        <v>06285119000446;2212268611100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268619100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="625">
@@ -5315,7 +5318,7 @@
         <v/>
       </c>
       <c r="B625" t="str">
-        <v>06285119000446;2212268619100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268607100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="626">
@@ -5323,7 +5326,7 @@
         <v/>
       </c>
       <c r="B626" t="str">
-        <v>06285119000446;2212268607100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268536100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="627">
@@ -5331,7 +5334,7 @@
         <v/>
       </c>
       <c r="B627" t="str">
-        <v>06285119000446;2212268536100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268535100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="628">
@@ -5339,7 +5342,7 @@
         <v/>
       </c>
       <c r="B628" t="str">
-        <v>06285119000446;2212268535100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268625100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="629">
@@ -5347,7 +5350,7 @@
         <v/>
       </c>
       <c r="B629" t="str">
-        <v>06285119000446;2212268625100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268614100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="630">
@@ -5355,7 +5358,7 @@
         <v/>
       </c>
       <c r="B630" t="str">
-        <v>06285119000446;2212268614100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268636100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="631">
@@ -5363,7 +5366,7 @@
         <v/>
       </c>
       <c r="B631" t="str">
-        <v>06285119000446;2212268636100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268605100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="632">
@@ -5371,7 +5374,7 @@
         <v/>
       </c>
       <c r="B632" t="str">
-        <v>06285119000446;2212268605100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268596100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="633">
@@ -5379,7 +5382,7 @@
         <v/>
       </c>
       <c r="B633" t="str">
-        <v>06285119000446;2212268596100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268637100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="634">
@@ -5387,7 +5390,7 @@
         <v/>
       </c>
       <c r="B634" t="str">
-        <v>06285119000446;2212268637100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268629100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="635">
@@ -5395,7 +5398,7 @@
         <v/>
       </c>
       <c r="B635" t="str">
-        <v>06285119000446;2212268629100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268603100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="636">
@@ -5403,7 +5406,7 @@
         <v/>
       </c>
       <c r="B636" t="str">
-        <v>06285119000446;2212268603100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610746100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="637">
@@ -5411,7 +5414,7 @@
         <v/>
       </c>
       <c r="B637" t="str">
-        <v>06285119000446;22122610746100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268586100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="638">
@@ -5419,7 +5422,7 @@
         <v/>
       </c>
       <c r="B638" t="str">
-        <v>06285119000446;2212268586100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269510100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="639">
@@ -5427,7 +5430,7 @@
         <v/>
       </c>
       <c r="B639" t="str">
-        <v>06285119000446;2212269510100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268610100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="640">
@@ -5435,7 +5438,7 @@
         <v/>
       </c>
       <c r="B640" t="str">
-        <v>06285119000446;2212268610100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268604100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="641">
@@ -5443,7 +5446,7 @@
         <v/>
       </c>
       <c r="B641" t="str">
-        <v>06285119000446;2212268604100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268613100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="642">
@@ -5451,7 +5454,7 @@
         <v/>
       </c>
       <c r="B642" t="str">
-        <v>06285119000446;2212268613100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268615100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="643">
@@ -5459,7 +5462,7 @@
         <v/>
       </c>
       <c r="B643" t="str">
-        <v>06285119000446;2212268615100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610745100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="644">
@@ -5467,7 +5470,7 @@
         <v/>
       </c>
       <c r="B644" t="str">
-        <v>06285119000446;22122610745100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269423100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="645">
@@ -5475,7 +5478,7 @@
         <v/>
       </c>
       <c r="B645" t="str">
-        <v>06285119000446;2212269423100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268601100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="646">
@@ -5483,7 +5486,7 @@
         <v/>
       </c>
       <c r="B646" t="str">
-        <v>06285119000446;2212268601100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269444100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="647">
@@ -5491,7 +5494,7 @@
         <v/>
       </c>
       <c r="B647" t="str">
-        <v>06285119000446;2212269444100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268608100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="648">
@@ -5499,7 +5502,7 @@
         <v/>
       </c>
       <c r="B648" t="str">
-        <v>06285119000446;2212268608100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269616100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="649">
@@ -5507,7 +5510,7 @@
         <v/>
       </c>
       <c r="B649" t="str">
-        <v>06285119000446;2212269616100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610747100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="650">
@@ -5515,7 +5518,7 @@
         <v/>
       </c>
       <c r="B650" t="str">
-        <v>06285119000446;22122610747100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269460100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="651">
@@ -5523,7 +5526,7 @@
         <v/>
       </c>
       <c r="B651" t="str">
-        <v>06285119000446;2212269460100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269409100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="652">
@@ -5531,7 +5534,7 @@
         <v/>
       </c>
       <c r="B652" t="str">
-        <v>06285119000446;2212269409100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268606100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="653">
@@ -5539,7 +5542,7 @@
         <v/>
       </c>
       <c r="B653" t="str">
-        <v>06285119000446;2212268606100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269632100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="654">
@@ -5547,7 +5550,7 @@
         <v/>
       </c>
       <c r="B654" t="str">
-        <v>06285119000446;2212269632100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269414100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="655">
@@ -5555,7 +5558,7 @@
         <v/>
       </c>
       <c r="B655" t="str">
-        <v>06285119000446;2212269414100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269459100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="656">
@@ -5563,7 +5566,7 @@
         <v/>
       </c>
       <c r="B656" t="str">
-        <v>06285119000446;2212269459100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269614100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="657">
@@ -5571,7 +5574,7 @@
         <v/>
       </c>
       <c r="B657" t="str">
-        <v>06285119000446;2212269614100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269584100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="658">
@@ -5579,7 +5582,7 @@
         <v/>
       </c>
       <c r="B658" t="str">
-        <v>06285119000446;2212269584100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269615100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="659">
@@ -5587,7 +5590,7 @@
         <v/>
       </c>
       <c r="B659" t="str">
-        <v>06285119000446;2212269615100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269446100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="660">
@@ -5595,7 +5598,7 @@
         <v/>
       </c>
       <c r="B660" t="str">
-        <v>06285119000446;2212269446100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268600100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="661">
@@ -5603,7 +5606,7 @@
         <v/>
       </c>
       <c r="B661" t="str">
-        <v>06285119000446;2212268600100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268609100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="662">
@@ -5611,7 +5614,7 @@
         <v/>
       </c>
       <c r="B662" t="str">
-        <v>06285119000446;2212268609100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268602100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="663">
@@ -5619,7 +5622,7 @@
         <v/>
       </c>
       <c r="B663" t="str">
-        <v>06285119000446;2212268602100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268585100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="664">
@@ -5627,7 +5630,7 @@
         <v/>
       </c>
       <c r="B664" t="str">
-        <v>06285119000446;2212268585100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269583100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="665">
@@ -5635,7 +5638,7 @@
         <v/>
       </c>
       <c r="B665" t="str">
-        <v>06285119000446;2212269583100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269625100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="666">
@@ -5643,7 +5646,7 @@
         <v/>
       </c>
       <c r="B666" t="str">
-        <v>06285119000446;2212269625100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269437100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="667">
@@ -5651,7 +5654,7 @@
         <v/>
       </c>
       <c r="B667" t="str">
-        <v>06285119000446;2212269437100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269634100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="668">
@@ -5659,7 +5662,7 @@
         <v/>
       </c>
       <c r="B668" t="str">
-        <v>06285119000446;2212269634100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269586100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="669">
@@ -5667,7 +5670,7 @@
         <v/>
       </c>
       <c r="B669" t="str">
-        <v>06285119000446;2212269586100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269580100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="670">
@@ -5675,7 +5678,7 @@
         <v/>
       </c>
       <c r="B670" t="str">
-        <v>06285119000446;2212269580100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268626100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="671">
@@ -5683,7 +5686,7 @@
         <v/>
       </c>
       <c r="B671" t="str">
-        <v>06285119000446;2212268626100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268620100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="672">
@@ -5691,7 +5694,7 @@
         <v/>
       </c>
       <c r="B672" t="str">
-        <v>06285119000446;2212268620100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268630100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="673">
@@ -5699,7 +5702,7 @@
         <v/>
       </c>
       <c r="B673" t="str">
-        <v>06285119000446;2212268630100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269442100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="674">
@@ -5707,7 +5710,7 @@
         <v/>
       </c>
       <c r="B674" t="str">
-        <v>06285119000446;2212269442100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269623100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="675">
@@ -5715,7 +5718,7 @@
         <v/>
       </c>
       <c r="B675" t="str">
-        <v>06285119000446;2212269623100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269622100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="676">
@@ -5723,28 +5726,28 @@
         <v/>
       </c>
       <c r="B676" t="str">
-        <v>06285119000446;2212269622100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269618100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="str">
         <v/>
       </c>
-      <c r="B677" t="str">
-        <v>06285119000446;2212269618100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="678">
       <c r="A678" t="str">
         <v/>
       </c>
+      <c r="B678" t="str">
+        <v>06285119000446;2212269606100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="str">
         <v/>
       </c>
       <c r="B679" t="str">
-        <v>06285119000446;2212269606100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269463100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="680">
@@ -5752,7 +5755,7 @@
         <v/>
       </c>
       <c r="B680" t="str">
-        <v>06285119000446;2212269463100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268627100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="681">
@@ -5760,7 +5763,7 @@
         <v/>
       </c>
       <c r="B681" t="str">
-        <v>06285119000446;2212268627100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268623100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="682">
@@ -5768,7 +5771,7 @@
         <v/>
       </c>
       <c r="B682" t="str">
-        <v>06285119000446;2212268623100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268621100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="683">
@@ -5776,7 +5779,7 @@
         <v/>
       </c>
       <c r="B683" t="str">
-        <v>06285119000446;2212268621100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269447100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="684">
@@ -5784,7 +5787,7 @@
         <v/>
       </c>
       <c r="B684" t="str">
-        <v>06285119000446;2212269447100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269464100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="685">
@@ -5792,7 +5795,7 @@
         <v/>
       </c>
       <c r="B685" t="str">
-        <v>06285119000446;2212269464100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269587100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="686">
@@ -5800,7 +5803,7 @@
         <v/>
       </c>
       <c r="B686" t="str">
-        <v>06285119000446;2212269587100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269477100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="687">
@@ -5808,7 +5811,7 @@
         <v/>
       </c>
       <c r="B687" t="str">
-        <v>06285119000446;2212269477100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269495100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="688">
@@ -5816,7 +5819,7 @@
         <v/>
       </c>
       <c r="B688" t="str">
-        <v>06285119000446;2212269495100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612038100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="689">
@@ -5824,7 +5827,7 @@
         <v/>
       </c>
       <c r="B689" t="str">
-        <v>06285119000446;22122612038100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269565100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="690">
@@ -5832,7 +5835,7 @@
         <v/>
       </c>
       <c r="B690" t="str">
-        <v>06285119000446;2212269565100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268631100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="691">
@@ -5840,7 +5843,7 @@
         <v/>
       </c>
       <c r="B691" t="str">
-        <v>06285119000446;2212268631100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268628100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="692">
@@ -5848,7 +5851,7 @@
         <v/>
       </c>
       <c r="B692" t="str">
-        <v>06285119000446;2212268628100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268624100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="693">
@@ -5856,7 +5859,7 @@
         <v/>
       </c>
       <c r="B693" t="str">
-        <v>06285119000446;2212268624100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268598100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="694">
@@ -5864,7 +5867,7 @@
         <v/>
       </c>
       <c r="B694" t="str">
-        <v>06285119000446;2212268598100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269531100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="695">
@@ -5872,7 +5875,7 @@
         <v/>
       </c>
       <c r="B695" t="str">
-        <v>06285119000446;2212269531100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269471100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="696">
@@ -5880,7 +5883,7 @@
         <v/>
       </c>
       <c r="B696" t="str">
-        <v>06285119000446;2212269471100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269596100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="697">
@@ -5888,7 +5891,7 @@
         <v/>
       </c>
       <c r="B697" t="str">
-        <v>06285119000446;2212269596100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269624100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="698">
@@ -5896,7 +5899,7 @@
         <v/>
       </c>
       <c r="B698" t="str">
-        <v>06285119000446;2212269624100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269470100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="699">
@@ -5904,7 +5907,7 @@
         <v/>
       </c>
       <c r="B699" t="str">
-        <v>06285119000446;2212269470100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269530100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="700">
@@ -5912,7 +5915,7 @@
         <v/>
       </c>
       <c r="B700" t="str">
-        <v>06285119000446;2212269530100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268622100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="701">
@@ -5920,7 +5923,7 @@
         <v/>
       </c>
       <c r="B701" t="str">
-        <v>06285119000446;2212268622100;11221216;16/12/2024</v>
+        <v>06285119000446;2212268538100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="702">
@@ -5928,7 +5931,7 @@
         <v/>
       </c>
       <c r="B702" t="str">
-        <v>06285119000446;2212268538100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266528100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="703">
@@ -5944,7 +5947,7 @@
         <v/>
       </c>
       <c r="B704" t="str">
-        <v>06285119000446;2212266528100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266512100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="705">
@@ -5952,7 +5955,7 @@
         <v/>
       </c>
       <c r="B705" t="str">
-        <v>06285119000446;2212266512100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266529100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="706">
@@ -5960,7 +5963,7 @@
         <v/>
       </c>
       <c r="B706" t="str">
-        <v>06285119000446;2212266529100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266519100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="707">
@@ -5968,7 +5971,7 @@
         <v/>
       </c>
       <c r="B707" t="str">
-        <v>06285119000446;2212266519100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266387100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="708">
@@ -5976,7 +5979,7 @@
         <v/>
       </c>
       <c r="B708" t="str">
-        <v>06285119000446;2212266387100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266520100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="709">
@@ -5984,28 +5987,28 @@
         <v/>
       </c>
       <c r="B709" t="str">
-        <v>06285119000446;2212266520100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266518100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="str">
         <v/>
       </c>
-      <c r="B710" t="str">
-        <v>06285119000446;2212266518100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="711">
       <c r="A711" t="str">
         <v/>
       </c>
+      <c r="B711" t="str">
+        <v>06285119000446;2212266380100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="str">
         <v/>
       </c>
       <c r="B712" t="str">
-        <v>06285119000446;2212266380100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266248100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="713">
@@ -6013,7 +6016,7 @@
         <v/>
       </c>
       <c r="B713" t="str">
-        <v>06285119000446;2212266248100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266257100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="714">
@@ -6021,7 +6024,7 @@
         <v/>
       </c>
       <c r="B714" t="str">
-        <v>06285119000446;2212266257100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266515100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="715">
@@ -6029,7 +6032,7 @@
         <v/>
       </c>
       <c r="B715" t="str">
-        <v>06285119000446;2212266515100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266471100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="716">
@@ -6037,7 +6040,7 @@
         <v/>
       </c>
       <c r="B716" t="str">
-        <v>06285119000446;2212266471100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266464100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="717">
@@ -6045,7 +6048,7 @@
         <v/>
       </c>
       <c r="B717" t="str">
-        <v>06285119000446;2212266464100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266514100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="718">
@@ -6053,7 +6056,7 @@
         <v/>
       </c>
       <c r="B718" t="str">
-        <v>06285119000446;2212266514100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266449100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="719">
@@ -6061,7 +6064,7 @@
         <v/>
       </c>
       <c r="B719" t="str">
-        <v>06285119000446;2212266449100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266513100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="720">
@@ -6069,7 +6072,7 @@
         <v/>
       </c>
       <c r="B720" t="str">
-        <v>06285119000446;2212266513100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266435100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="721">
@@ -6077,7 +6080,7 @@
         <v/>
       </c>
       <c r="B721" t="str">
-        <v>06285119000446;2212266435100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266487100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="722">
@@ -6085,7 +6088,7 @@
         <v/>
       </c>
       <c r="B722" t="str">
-        <v>06285119000446;2212266487100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266479100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="723">
@@ -6093,7 +6096,7 @@
         <v/>
       </c>
       <c r="B723" t="str">
-        <v>06285119000446;2212266479100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266500100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="724">
@@ -6101,7 +6104,7 @@
         <v/>
       </c>
       <c r="B724" t="str">
-        <v>06285119000446;2212266500100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266501100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="725">
@@ -6109,7 +6112,7 @@
         <v/>
       </c>
       <c r="B725" t="str">
-        <v>06285119000446;2212266501100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266498100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="726">
@@ -6117,7 +6120,7 @@
         <v/>
       </c>
       <c r="B726" t="str">
-        <v>06285119000446;2212266498100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266499100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="727">
@@ -6125,7 +6128,7 @@
         <v/>
       </c>
       <c r="B727" t="str">
-        <v>06285119000446;2212266499100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266508100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="728">
@@ -6133,7 +6136,7 @@
         <v/>
       </c>
       <c r="B728" t="str">
-        <v>06285119000446;2212266508100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266507100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="729">
@@ -6141,7 +6144,7 @@
         <v/>
       </c>
       <c r="B729" t="str">
-        <v>06285119000446;2212266507100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266505100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="730">
@@ -6149,7 +6152,7 @@
         <v/>
       </c>
       <c r="B730" t="str">
-        <v>06285119000446;2212266505100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266510100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="731">
@@ -6157,7 +6160,7 @@
         <v/>
       </c>
       <c r="B731" t="str">
-        <v>06285119000446;2212266510100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266509100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="732">
@@ -6165,7 +6168,7 @@
         <v/>
       </c>
       <c r="B732" t="str">
-        <v>06285119000446;2212266509100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266511100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="733">
@@ -6173,7 +6176,7 @@
         <v/>
       </c>
       <c r="B733" t="str">
-        <v>06285119000446;2212266511100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266434100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="734">
@@ -6181,7 +6184,7 @@
         <v/>
       </c>
       <c r="B734" t="str">
-        <v>06285119000446;2212266434100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266386100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="735">
@@ -6189,7 +6192,7 @@
         <v/>
       </c>
       <c r="B735" t="str">
-        <v>06285119000446;2212266386100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266463100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="736">
@@ -6197,7 +6200,7 @@
         <v/>
       </c>
       <c r="B736" t="str">
-        <v>06285119000446;2212266463100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266448100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="737">
@@ -6205,7 +6208,7 @@
         <v/>
       </c>
       <c r="B737" t="str">
-        <v>06285119000446;2212266448100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266486100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="738">
@@ -6213,7 +6216,7 @@
         <v/>
       </c>
       <c r="B738" t="str">
-        <v>06285119000446;2212266486100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266478100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="739">
@@ -6221,7 +6224,7 @@
         <v/>
       </c>
       <c r="B739" t="str">
-        <v>06285119000446;2212266478100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266470100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="740">
@@ -6229,7 +6232,7 @@
         <v/>
       </c>
       <c r="B740" t="str">
-        <v>06285119000446;2212266470100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266503100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="741">
@@ -6237,7 +6240,7 @@
         <v/>
       </c>
       <c r="B741" t="str">
-        <v>06285119000446;2212266503100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266504100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="742">
@@ -6245,7 +6248,7 @@
         <v/>
       </c>
       <c r="B742" t="str">
-        <v>06285119000446;2212266504100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266502100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="743">
@@ -6253,7 +6256,7 @@
         <v/>
       </c>
       <c r="B743" t="str">
-        <v>06285119000446;2212266502100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266385100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="744">
@@ -6261,7 +6264,7 @@
         <v/>
       </c>
       <c r="B744" t="str">
-        <v>06285119000446;2212266385100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266462100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="745">
@@ -6269,7 +6272,7 @@
         <v/>
       </c>
       <c r="B745" t="str">
-        <v>06285119000446;2212266462100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266447100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="746">
@@ -6277,7 +6280,7 @@
         <v/>
       </c>
       <c r="B746" t="str">
-        <v>06285119000446;2212266447100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266433100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="747">
@@ -6285,7 +6288,7 @@
         <v/>
       </c>
       <c r="B747" t="str">
-        <v>06285119000446;2212266433100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266485100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="748">
@@ -6293,7 +6296,7 @@
         <v/>
       </c>
       <c r="B748" t="str">
-        <v>06285119000446;2212266485100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266476100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="749">
@@ -6301,7 +6304,7 @@
         <v/>
       </c>
       <c r="B749" t="str">
-        <v>06285119000446;2212266476100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266469100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="750">
@@ -6309,7 +6312,7 @@
         <v/>
       </c>
       <c r="B750" t="str">
-        <v>06285119000446;2212266469100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266379100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="751">
@@ -6317,7 +6320,7 @@
         <v/>
       </c>
       <c r="B751" t="str">
-        <v>06285119000446;2212266379100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266256100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="752">
@@ -6325,7 +6328,7 @@
         <v/>
       </c>
       <c r="B752" t="str">
-        <v>06285119000446;2212266256100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266247100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="753">
@@ -6333,7 +6336,7 @@
         <v/>
       </c>
       <c r="B753" t="str">
-        <v>06285119000446;2212266247100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266494100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="754">
@@ -6341,7 +6344,7 @@
         <v/>
       </c>
       <c r="B754" t="str">
-        <v>06285119000446;2212266494100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266493100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="755">
@@ -6349,7 +6352,7 @@
         <v/>
       </c>
       <c r="B755" t="str">
-        <v>06285119000446;2212266493100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266492100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="756">
@@ -6357,7 +6360,7 @@
         <v/>
       </c>
       <c r="B756" t="str">
-        <v>06285119000446;2212266492100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266491100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="757">
@@ -6365,7 +6368,7 @@
         <v/>
       </c>
       <c r="B757" t="str">
-        <v>06285119000446;2212266491100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266495100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="758">
@@ -6373,7 +6376,7 @@
         <v/>
       </c>
       <c r="B758" t="str">
-        <v>06285119000446;2212266495100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266496100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="759">
@@ -6381,7 +6384,7 @@
         <v/>
       </c>
       <c r="B759" t="str">
-        <v>06285119000446;2212266496100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266497100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="760">
@@ -6389,7 +6392,7 @@
         <v/>
       </c>
       <c r="B760" t="str">
-        <v>06285119000446;2212266497100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266378100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="761">
@@ -6397,7 +6400,7 @@
         <v/>
       </c>
       <c r="B761" t="str">
-        <v>06285119000446;2212266378100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266254100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="762">
@@ -6405,7 +6408,7 @@
         <v/>
       </c>
       <c r="B762" t="str">
-        <v>06285119000446;2212266254100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266246100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="763">
@@ -6413,7 +6416,7 @@
         <v/>
       </c>
       <c r="B763" t="str">
-        <v>06285119000446;2212266246100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266376100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="764">
@@ -6421,7 +6424,7 @@
         <v/>
       </c>
       <c r="B764" t="str">
-        <v>06285119000446;2212266376100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266253100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="765">
@@ -6429,7 +6432,7 @@
         <v/>
       </c>
       <c r="B765" t="str">
-        <v>06285119000446;2212266253100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266384100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="766">
@@ -6437,7 +6440,7 @@
         <v/>
       </c>
       <c r="B766" t="str">
-        <v>06285119000446;2212266384100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266245100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="767">
@@ -6445,7 +6448,7 @@
         <v/>
       </c>
       <c r="B767" t="str">
-        <v>06285119000446;2212266245100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266461100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="768">
@@ -6453,7 +6456,7 @@
         <v/>
       </c>
       <c r="B768" t="str">
-        <v>06285119000446;2212266461100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266446100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="769">
@@ -6461,7 +6464,7 @@
         <v/>
       </c>
       <c r="B769" t="str">
-        <v>06285119000446;2212266446100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266432100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="770">
@@ -6469,7 +6472,7 @@
         <v/>
       </c>
       <c r="B770" t="str">
-        <v>06285119000446;2212266432100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266483100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="771">
@@ -6477,7 +6480,7 @@
         <v/>
       </c>
       <c r="B771" t="str">
-        <v>06285119000446;2212266483100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266475100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="772">
@@ -6485,7 +6488,7 @@
         <v/>
       </c>
       <c r="B772" t="str">
-        <v>06285119000446;2212266475100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266468100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="773">
@@ -6493,7 +6496,7 @@
         <v/>
       </c>
       <c r="B773" t="str">
-        <v>06285119000446;2212266468100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266259100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="774">
@@ -6501,7 +6504,7 @@
         <v/>
       </c>
       <c r="B774" t="str">
-        <v>06285119000446;2212266259100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266251100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="775">
@@ -6509,7 +6512,7 @@
         <v/>
       </c>
       <c r="B775" t="str">
-        <v>06285119000446;2212266251100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266382100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="776">
@@ -6517,7 +6520,7 @@
         <v/>
       </c>
       <c r="B776" t="str">
-        <v>06285119000446;2212266382100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266389100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="777">
@@ -6525,7 +6528,7 @@
         <v/>
       </c>
       <c r="B777" t="str">
-        <v>06285119000446;2212266389100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266437100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="778">
@@ -6533,7 +6536,7 @@
         <v/>
       </c>
       <c r="B778" t="str">
-        <v>06285119000446;2212266437100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266451100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="779">
@@ -6541,7 +6544,7 @@
         <v/>
       </c>
       <c r="B779" t="str">
-        <v>06285119000446;2212266451100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266466100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="780">
@@ -6549,7 +6552,7 @@
         <v/>
       </c>
       <c r="B780" t="str">
-        <v>06285119000446;2212266466100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266473100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="781">
@@ -6557,7 +6560,7 @@
         <v/>
       </c>
       <c r="B781" t="str">
-        <v>06285119000446;2212266473100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266481100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="782">
@@ -6565,7 +6568,7 @@
         <v/>
       </c>
       <c r="B782" t="str">
-        <v>06285119000446;2212266481100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266489100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="783">
@@ -6573,7 +6576,7 @@
         <v/>
       </c>
       <c r="B783" t="str">
-        <v>06285119000446;2212266489100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266474100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="784">
@@ -6581,7 +6584,7 @@
         <v/>
       </c>
       <c r="B784" t="str">
-        <v>06285119000446;2212266474100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266438100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="785">
@@ -6589,7 +6592,7 @@
         <v/>
       </c>
       <c r="B785" t="str">
-        <v>06285119000446;2212266438100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266482100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="786">
@@ -6597,7 +6600,7 @@
         <v/>
       </c>
       <c r="B786" t="str">
-        <v>06285119000446;2212266482100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266390100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="787">
@@ -6605,7 +6608,7 @@
         <v/>
       </c>
       <c r="B787" t="str">
-        <v>06285119000446;2212266390100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266383100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="788">
@@ -6613,7 +6616,7 @@
         <v/>
       </c>
       <c r="B788" t="str">
-        <v>06285119000446;2212266383100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266252100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="789">
@@ -6621,7 +6624,7 @@
         <v/>
       </c>
       <c r="B789" t="str">
-        <v>06285119000446;2212266252100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266260100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="790">
@@ -6629,7 +6632,7 @@
         <v/>
       </c>
       <c r="B790" t="str">
-        <v>06285119000446;2212266260100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266538100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="791">
@@ -6637,7 +6640,7 @@
         <v/>
       </c>
       <c r="B791" t="str">
-        <v>06285119000446;2212266538100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266554100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="792">
@@ -6645,7 +6648,7 @@
         <v/>
       </c>
       <c r="B792" t="str">
-        <v>06285119000446;2212266554100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266556100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="793">
@@ -6653,7 +6656,7 @@
         <v/>
       </c>
       <c r="B793" t="str">
-        <v>06285119000446;2212266556100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266452100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="794">
@@ -6661,7 +6664,7 @@
         <v/>
       </c>
       <c r="B794" t="str">
-        <v>06285119000446;2212266452100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266467100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="795">
@@ -6669,7 +6672,7 @@
         <v/>
       </c>
       <c r="B795" t="str">
-        <v>06285119000446;2212266467100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266490100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="796">
@@ -6677,7 +6680,7 @@
         <v/>
       </c>
       <c r="B796" t="str">
-        <v>06285119000446;2212266490100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266594100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="797">
@@ -6685,7 +6688,7 @@
         <v/>
       </c>
       <c r="B797" t="str">
-        <v>06285119000446;2212266594100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266562100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="798">
@@ -6693,7 +6696,7 @@
         <v/>
       </c>
       <c r="B798" t="str">
-        <v>06285119000446;2212266562100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266545100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="799">
@@ -6701,7 +6704,7 @@
         <v/>
       </c>
       <c r="B799" t="str">
-        <v>06285119000446;2212266545100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266544100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="800">
@@ -6709,7 +6712,7 @@
         <v/>
       </c>
       <c r="B800" t="str">
-        <v>06285119000446;2212266544100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266543100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="801">
@@ -6717,7 +6720,7 @@
         <v/>
       </c>
       <c r="B801" t="str">
-        <v>06285119000446;2212266543100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266540100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="802">
@@ -6725,7 +6728,7 @@
         <v/>
       </c>
       <c r="B802" t="str">
-        <v>06285119000446;2212266540100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266547100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="803">
@@ -6733,7 +6736,7 @@
         <v/>
       </c>
       <c r="B803" t="str">
-        <v>06285119000446;2212266547100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266549100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="804">
@@ -6741,7 +6744,7 @@
         <v/>
       </c>
       <c r="B804" t="str">
-        <v>06285119000446;2212266549100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266548100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="805">
@@ -6749,7 +6752,7 @@
         <v/>
       </c>
       <c r="B805" t="str">
-        <v>06285119000446;2212266548100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266532100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="806">
@@ -6757,7 +6760,7 @@
         <v/>
       </c>
       <c r="B806" t="str">
-        <v>06285119000446;2212266532100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266551100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="807">
@@ -6765,7 +6768,7 @@
         <v/>
       </c>
       <c r="B807" t="str">
-        <v>06285119000446;2212266551100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266550100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="808">
@@ -6773,7 +6776,7 @@
         <v/>
       </c>
       <c r="B808" t="str">
-        <v>06285119000446;2212266550100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266557100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="809">
@@ -6781,7 +6784,7 @@
         <v/>
       </c>
       <c r="B809" t="str">
-        <v>06285119000446;2212266557100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266552100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="810">
@@ -6789,7 +6792,7 @@
         <v/>
       </c>
       <c r="B810" t="str">
-        <v>06285119000446;2212266552100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266539100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="811">
@@ -6797,7 +6800,7 @@
         <v/>
       </c>
       <c r="B811" t="str">
-        <v>06285119000446;2212266539100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266534100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="812">
@@ -6805,7 +6808,7 @@
         <v/>
       </c>
       <c r="B812" t="str">
-        <v>06285119000446;2212266534100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266546100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="813">
@@ -6813,7 +6816,7 @@
         <v/>
       </c>
       <c r="B813" t="str">
-        <v>06285119000446;2212266546100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266536100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="814">
@@ -6821,7 +6824,7 @@
         <v/>
       </c>
       <c r="B814" t="str">
-        <v>06285119000446;2212266536100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266537100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="815">
@@ -6829,7 +6832,7 @@
         <v/>
       </c>
       <c r="B815" t="str">
-        <v>06285119000446;2212266537100;11221216;16/12/2024</v>
+        <v>06285119000446;2212267598100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="816">
@@ -6837,7 +6840,7 @@
         <v/>
       </c>
       <c r="B816" t="str">
-        <v>06285119000446;2212267598100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266561100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="817">
@@ -6845,7 +6848,7 @@
         <v/>
       </c>
       <c r="B817" t="str">
-        <v>06285119000446;2212266561100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266553100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="818">
@@ -6853,7 +6856,7 @@
         <v/>
       </c>
       <c r="B818" t="str">
-        <v>06285119000446;2212266553100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266535100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="819">
@@ -6861,7 +6864,7 @@
         <v/>
       </c>
       <c r="B819" t="str">
-        <v>06285119000446;2212266535100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266560100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="820">
@@ -6869,7 +6872,7 @@
         <v/>
       </c>
       <c r="B820" t="str">
-        <v>06285119000446;2212266560100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266559100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="821">
@@ -6877,7 +6880,7 @@
         <v/>
       </c>
       <c r="B821" t="str">
-        <v>06285119000446;2212266559100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266526100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="822">
@@ -6885,7 +6888,7 @@
         <v/>
       </c>
       <c r="B822" t="str">
-        <v>06285119000446;2212266526100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266531100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="823">
@@ -6893,7 +6896,7 @@
         <v/>
       </c>
       <c r="B823" t="str">
-        <v>06285119000446;2212266531100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266450100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="824">
@@ -6901,7 +6904,7 @@
         <v/>
       </c>
       <c r="B824" t="str">
-        <v>06285119000446;2212266450100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266488100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="825">
@@ -6909,7 +6912,7 @@
         <v/>
       </c>
       <c r="B825" t="str">
-        <v>06285119000446;2212266488100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266480100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="826">
@@ -6917,7 +6920,7 @@
         <v/>
       </c>
       <c r="B826" t="str">
-        <v>06285119000446;2212266480100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266472100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="827">
@@ -6925,7 +6928,7 @@
         <v/>
       </c>
       <c r="B827" t="str">
-        <v>06285119000446;2212266472100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266465100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="828">
@@ -6933,7 +6936,7 @@
         <v/>
       </c>
       <c r="B828" t="str">
-        <v>06285119000446;2212266465100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266527100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="829">
@@ -6941,7 +6944,7 @@
         <v/>
       </c>
       <c r="B829" t="str">
-        <v>06285119000446;2212266527100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266533100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="830">
@@ -6949,7 +6952,7 @@
         <v/>
       </c>
       <c r="B830" t="str">
-        <v>06285119000446;2212266533100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266541100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="831">
@@ -6957,7 +6960,7 @@
         <v/>
       </c>
       <c r="B831" t="str">
-        <v>06285119000446;2212266541100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266542100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="832">
@@ -6965,7 +6968,7 @@
         <v/>
       </c>
       <c r="B832" t="str">
-        <v>06285119000446;2212266542100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266530100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="833">
@@ -6973,7 +6976,7 @@
         <v/>
       </c>
       <c r="B833" t="str">
-        <v>06285119000446;2212266530100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266436100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="834">
@@ -6981,7 +6984,7 @@
         <v/>
       </c>
       <c r="B834" t="str">
-        <v>06285119000446;2212266436100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266250100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="835">
@@ -6989,7 +6992,7 @@
         <v/>
       </c>
       <c r="B835" t="str">
-        <v>06285119000446;2212266250100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266258100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="836">
@@ -6997,7 +7000,7 @@
         <v/>
       </c>
       <c r="B836" t="str">
-        <v>06285119000446;2212266258100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266381100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="837">
@@ -7005,7 +7008,7 @@
         <v/>
       </c>
       <c r="B837" t="str">
-        <v>06285119000446;2212266381100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266388100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="838">
@@ -7013,7 +7016,7 @@
         <v/>
       </c>
       <c r="B838" t="str">
-        <v>06285119000446;2212266388100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266521100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="839">
@@ -7021,7 +7024,7 @@
         <v/>
       </c>
       <c r="B839" t="str">
-        <v>06285119000446;2212266521100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266522100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="840">
@@ -7029,7 +7032,7 @@
         <v/>
       </c>
       <c r="B840" t="str">
-        <v>06285119000446;2212266522100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266524100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="841">
@@ -7037,7 +7040,7 @@
         <v/>
       </c>
       <c r="B841" t="str">
-        <v>06285119000446;2212266524100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266525100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="842">
@@ -7045,7 +7048,7 @@
         <v/>
       </c>
       <c r="B842" t="str">
-        <v>06285119000446;2212266525100;11221216;16/12/2024</v>
+        <v>06285119000446;2212266523100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="843">
@@ -7053,28 +7056,28 @@
         <v/>
       </c>
       <c r="B843" t="str">
-        <v>06285119000446;2212266523100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612116100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="str">
         <v/>
       </c>
-      <c r="B844" t="str">
-        <v>06285119000446;22122612116100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="845">
       <c r="A845" t="str">
         <v/>
       </c>
+      <c r="B845" t="str">
+        <v>06285119000446;22122612124100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" t="str">
         <v/>
       </c>
       <c r="B846" t="str">
-        <v>06285119000446;22122612124100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612132100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="847">
@@ -7082,7 +7085,7 @@
         <v/>
       </c>
       <c r="B847" t="str">
-        <v>06285119000446;22122612132100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610100100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="848">
@@ -7090,7 +7093,7 @@
         <v/>
       </c>
       <c r="B848" t="str">
-        <v>06285119000446;22122610100100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610066100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="849">
@@ -7098,7 +7101,7 @@
         <v/>
       </c>
       <c r="B849" t="str">
-        <v>06285119000446;22122610066100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610098100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="850">
@@ -7106,7 +7109,7 @@
         <v/>
       </c>
       <c r="B850" t="str">
-        <v>06285119000446;22122610098100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610064100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="851">
@@ -7114,7 +7117,7 @@
         <v/>
       </c>
       <c r="B851" t="str">
-        <v>06285119000446;22122610064100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612139100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="852">
@@ -7122,7 +7125,7 @@
         <v/>
       </c>
       <c r="B852" t="str">
-        <v>06285119000446;22122612139100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612125100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="853">
@@ -7130,7 +7133,7 @@
         <v/>
       </c>
       <c r="B853" t="str">
-        <v>06285119000446;22122612125100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612153100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="854">
@@ -7138,7 +7141,7 @@
         <v/>
       </c>
       <c r="B854" t="str">
-        <v>06285119000446;22122612153100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612146100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="855">
@@ -7146,7 +7149,7 @@
         <v/>
       </c>
       <c r="B855" t="str">
-        <v>06285119000446;22122612146100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610057100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="856">
@@ -7154,7 +7157,7 @@
         <v/>
       </c>
       <c r="B856" t="str">
-        <v>06285119000446;22122610057100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610055100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="857">
@@ -7162,7 +7165,7 @@
         <v/>
       </c>
       <c r="B857" t="str">
-        <v>06285119000446;22122610055100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269913100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="858">
@@ -7170,7 +7173,7 @@
         <v/>
       </c>
       <c r="B858" t="str">
-        <v>06285119000446;2212269913100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612123100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="859">
@@ -7178,7 +7181,7 @@
         <v/>
       </c>
       <c r="B859" t="str">
-        <v>06285119000446;22122612123100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612145100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="860">
@@ -7186,7 +7189,7 @@
         <v/>
       </c>
       <c r="B860" t="str">
-        <v>06285119000446;22122612145100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612130100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="861">
@@ -7194,7 +7197,7 @@
         <v/>
       </c>
       <c r="B861" t="str">
-        <v>06285119000446;22122612130100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612122100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="862">
@@ -7202,7 +7205,7 @@
         <v/>
       </c>
       <c r="B862" t="str">
-        <v>06285119000446;22122612122100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612115100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="863">
@@ -7210,7 +7213,7 @@
         <v/>
       </c>
       <c r="B863" t="str">
-        <v>06285119000446;22122612115100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612138100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="864">
@@ -7218,7 +7221,7 @@
         <v/>
       </c>
       <c r="B864" t="str">
-        <v>06285119000446;22122612138100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612131100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="865">
@@ -7226,7 +7229,7 @@
         <v/>
       </c>
       <c r="B865" t="str">
-        <v>06285119000446;22122612131100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610074100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="866">
@@ -7234,7 +7237,7 @@
         <v/>
       </c>
       <c r="B866" t="str">
-        <v>06285119000446;22122610074100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269912100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="867">
@@ -7242,7 +7245,7 @@
         <v/>
       </c>
       <c r="B867" t="str">
-        <v>06285119000446;2212269912100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612160100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="868">
@@ -7250,7 +7253,7 @@
         <v/>
       </c>
       <c r="B868" t="str">
-        <v>06285119000446;22122612160100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612152100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="869">
@@ -7258,7 +7261,7 @@
         <v/>
       </c>
       <c r="B869" t="str">
-        <v>06285119000446;22122612152100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269995100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="870">
@@ -7266,7 +7269,7 @@
         <v/>
       </c>
       <c r="B870" t="str">
-        <v>06285119000446;2212269995100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612151100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="871">
@@ -7274,7 +7277,7 @@
         <v/>
       </c>
       <c r="B871" t="str">
-        <v>06285119000446;22122612151100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612144100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="872">
@@ -7282,7 +7285,7 @@
         <v/>
       </c>
       <c r="B872" t="str">
-        <v>06285119000446;22122612144100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612137100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="873">
@@ -7290,7 +7293,7 @@
         <v/>
       </c>
       <c r="B873" t="str">
-        <v>06285119000446;22122612137100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610060100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="874">
@@ -7298,7 +7301,7 @@
         <v/>
       </c>
       <c r="B874" t="str">
-        <v>06285119000446;22122610060100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610000100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="875">
@@ -7306,7 +7309,7 @@
         <v/>
       </c>
       <c r="B875" t="str">
-        <v>06285119000446;22122610000100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610011100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="876">
@@ -7314,7 +7317,7 @@
         <v/>
       </c>
       <c r="B876" t="str">
-        <v>06285119000446;22122610011100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610015100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="877">
@@ -7322,7 +7325,7 @@
         <v/>
       </c>
       <c r="B877" t="str">
-        <v>06285119000446;22122610015100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269905100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="878">
@@ -7330,7 +7333,7 @@
         <v/>
       </c>
       <c r="B878" t="str">
-        <v>06285119000446;2212269905100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269928100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="879">
@@ -7338,7 +7341,7 @@
         <v/>
       </c>
       <c r="B879" t="str">
-        <v>06285119000446;2212269928100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269927100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="880">
@@ -7346,7 +7349,7 @@
         <v/>
       </c>
       <c r="B880" t="str">
-        <v>06285119000446;2212269927100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269937100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="881">
@@ -7354,7 +7357,7 @@
         <v/>
       </c>
       <c r="B881" t="str">
-        <v>06285119000446;2212269937100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269943100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="882">
@@ -7362,7 +7365,7 @@
         <v/>
       </c>
       <c r="B882" t="str">
-        <v>06285119000446;2212269943100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612159100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="883">
@@ -7370,7 +7373,7 @@
         <v/>
       </c>
       <c r="B883" t="str">
-        <v>06285119000446;22122612159100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610054100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="884">
@@ -7378,7 +7381,7 @@
         <v/>
       </c>
       <c r="B884" t="str">
-        <v>06285119000446;22122610054100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610029100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="885">
@@ -7386,7 +7389,7 @@
         <v/>
       </c>
       <c r="B885" t="str">
-        <v>06285119000446;22122610029100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610058100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="886">
@@ -7394,7 +7397,7 @@
         <v/>
       </c>
       <c r="B886" t="str">
-        <v>06285119000446;22122610058100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269933100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="887">
@@ -7402,7 +7405,7 @@
         <v/>
       </c>
       <c r="B887" t="str">
-        <v>06285119000446;2212269933100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269966100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="888">
@@ -7410,7 +7413,7 @@
         <v/>
       </c>
       <c r="B888" t="str">
-        <v>06285119000446;2212269966100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269892100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="889">
@@ -7418,7 +7421,7 @@
         <v/>
       </c>
       <c r="B889" t="str">
-        <v>06285119000446;2212269892100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269920100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="890">
@@ -7426,7 +7429,7 @@
         <v/>
       </c>
       <c r="B890" t="str">
-        <v>06285119000446;2212269920100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269919100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="891">
@@ -7434,7 +7437,7 @@
         <v/>
       </c>
       <c r="B891" t="str">
-        <v>06285119000446;2212269919100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269972100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="892">
@@ -7442,7 +7445,7 @@
         <v/>
       </c>
       <c r="B892" t="str">
-        <v>06285119000446;2212269972100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269940100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="893">
@@ -7450,7 +7453,7 @@
         <v/>
       </c>
       <c r="B893" t="str">
-        <v>06285119000446;2212269940100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612129100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="894">
@@ -7458,7 +7461,7 @@
         <v/>
       </c>
       <c r="B894" t="str">
-        <v>06285119000446;22122612129100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612121100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="895">
@@ -7466,7 +7469,7 @@
         <v/>
       </c>
       <c r="B895" t="str">
-        <v>06285119000446;22122612121100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612114100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="896">
@@ -7474,7 +7477,7 @@
         <v/>
       </c>
       <c r="B896" t="str">
-        <v>06285119000446;22122612114100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610032100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="897">
@@ -7482,7 +7485,7 @@
         <v/>
       </c>
       <c r="B897" t="str">
-        <v>06285119000446;22122610032100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612157100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="898">
@@ -7490,7 +7493,7 @@
         <v/>
       </c>
       <c r="B898" t="str">
-        <v>06285119000446;22122612157100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612150100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="899">
@@ -7498,7 +7501,7 @@
         <v/>
       </c>
       <c r="B899" t="str">
-        <v>06285119000446;22122612150100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612143100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="900">
@@ -7506,7 +7509,7 @@
         <v/>
       </c>
       <c r="B900" t="str">
-        <v>06285119000446;22122612143100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610585100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="901">
@@ -7514,7 +7517,7 @@
         <v/>
       </c>
       <c r="B901" t="str">
-        <v>06285119000446;22122610585100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610053100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="902">
@@ -7522,7 +7525,7 @@
         <v/>
       </c>
       <c r="B902" t="str">
-        <v>06285119000446;22122610053100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610056100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="903">
@@ -7530,7 +7533,7 @@
         <v/>
       </c>
       <c r="B903" t="str">
-        <v>06285119000446;22122610056100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612136100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="904">
@@ -7538,7 +7541,7 @@
         <v/>
       </c>
       <c r="B904" t="str">
-        <v>06285119000446;22122612136100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610589100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="905">
@@ -7546,7 +7549,7 @@
         <v/>
       </c>
       <c r="B905" t="str">
-        <v>06285119000446;22122610589100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612112100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="906">
@@ -7554,7 +7557,7 @@
         <v/>
       </c>
       <c r="B906" t="str">
-        <v>06285119000446;22122612112100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612111100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="907">
@@ -7562,7 +7565,7 @@
         <v/>
       </c>
       <c r="B907" t="str">
-        <v>06285119000446;22122612111100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610587100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="908">
@@ -7570,7 +7573,7 @@
         <v/>
       </c>
       <c r="B908" t="str">
-        <v>06285119000446;22122610587100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612113100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="909">
@@ -7578,7 +7581,7 @@
         <v/>
       </c>
       <c r="B909" t="str">
-        <v>06285119000446;22122612113100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612142100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="910">
@@ -7586,7 +7589,7 @@
         <v/>
       </c>
       <c r="B910" t="str">
-        <v>06285119000446;22122612142100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612135100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="911">
@@ -7594,7 +7597,7 @@
         <v/>
       </c>
       <c r="B911" t="str">
-        <v>06285119000446;22122612135100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612128100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="912">
@@ -7602,7 +7605,7 @@
         <v/>
       </c>
       <c r="B912" t="str">
-        <v>06285119000446;22122612128100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612120100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="913">
@@ -7610,7 +7613,7 @@
         <v/>
       </c>
       <c r="B913" t="str">
-        <v>06285119000446;22122612120100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612127100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="914">
@@ -7618,7 +7621,7 @@
         <v/>
       </c>
       <c r="B914" t="str">
-        <v>06285119000446;22122612127100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612148100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="915">
@@ -7626,7 +7629,7 @@
         <v/>
       </c>
       <c r="B915" t="str">
-        <v>06285119000446;22122612148100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612141100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="916">
@@ -7634,7 +7637,7 @@
         <v/>
       </c>
       <c r="B916" t="str">
-        <v>06285119000446;22122612141100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612134100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="917">
@@ -7642,7 +7645,7 @@
         <v/>
       </c>
       <c r="B917" t="str">
-        <v>06285119000446;22122612134100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610079100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="918">
@@ -7650,7 +7653,7 @@
         <v/>
       </c>
       <c r="B918" t="str">
-        <v>06285119000446;22122610079100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610030100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="919">
@@ -7658,7 +7661,7 @@
         <v/>
       </c>
       <c r="B919" t="str">
-        <v>06285119000446;22122610030100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612155100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="920">
@@ -7666,7 +7669,7 @@
         <v/>
       </c>
       <c r="B920" t="str">
-        <v>06285119000446;22122612155100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610031100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="921">
@@ -7674,7 +7677,7 @@
         <v/>
       </c>
       <c r="B921" t="str">
-        <v>06285119000446;22122610031100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612156100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="922">
@@ -7682,7 +7685,7 @@
         <v/>
       </c>
       <c r="B922" t="str">
-        <v>06285119000446;22122612156100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610103100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="923">
@@ -7690,7 +7693,7 @@
         <v/>
       </c>
       <c r="B923" t="str">
-        <v>06285119000446;22122610103100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612149100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="924">
@@ -7698,7 +7701,7 @@
         <v/>
       </c>
       <c r="B924" t="str">
-        <v>06285119000446;22122612149100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610075100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="925">
@@ -7706,7 +7709,7 @@
         <v/>
       </c>
       <c r="B925" t="str">
-        <v>06285119000446;22122610075100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610070100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="926">
@@ -7714,7 +7717,7 @@
         <v/>
       </c>
       <c r="B926" t="str">
-        <v>06285119000446;22122610070100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610571100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="927">
@@ -7722,7 +7725,7 @@
         <v/>
       </c>
       <c r="B927" t="str">
-        <v>06285119000446;22122610571100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610582100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="928">
@@ -7730,7 +7733,7 @@
         <v/>
       </c>
       <c r="B928" t="str">
-        <v>06285119000446;22122610582100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610590100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="929">
@@ -7738,7 +7741,7 @@
         <v/>
       </c>
       <c r="B929" t="str">
-        <v>06285119000446;22122610590100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269914100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="930">
@@ -7746,7 +7749,7 @@
         <v/>
       </c>
       <c r="B930" t="str">
-        <v>06285119000446;2212269914100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610536100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="931">
@@ -7754,7 +7757,7 @@
         <v/>
       </c>
       <c r="B931" t="str">
-        <v>06285119000446;22122610536100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610544100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="932">
@@ -7762,7 +7765,7 @@
         <v/>
       </c>
       <c r="B932" t="str">
-        <v>06285119000446;22122610544100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610043100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="933">
@@ -7770,7 +7773,7 @@
         <v/>
       </c>
       <c r="B933" t="str">
-        <v>06285119000446;22122610043100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269973100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="934">
@@ -7778,7 +7781,7 @@
         <v/>
       </c>
       <c r="B934" t="str">
-        <v>06285119000446;2212269973100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269967100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="935">
@@ -7786,7 +7789,7 @@
         <v/>
       </c>
       <c r="B935" t="str">
-        <v>06285119000446;2212269967100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610002100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="936">
@@ -7794,7 +7797,7 @@
         <v/>
       </c>
       <c r="B936" t="str">
-        <v>06285119000446;22122610002100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269906100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="937">
@@ -7802,7 +7805,7 @@
         <v/>
       </c>
       <c r="B937" t="str">
-        <v>06285119000446;2212269906100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610013100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="938">
@@ -7810,7 +7813,7 @@
         <v/>
       </c>
       <c r="B938" t="str">
-        <v>06285119000446;22122610013100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269907100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="939">
@@ -7818,7 +7821,7 @@
         <v/>
       </c>
       <c r="B939" t="str">
-        <v>06285119000446;2212269907100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610065100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="940">
@@ -7826,7 +7829,7 @@
         <v/>
       </c>
       <c r="B940" t="str">
-        <v>06285119000446;22122610065100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610101100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="941">
@@ -7834,7 +7837,7 @@
         <v/>
       </c>
       <c r="B941" t="str">
-        <v>06285119000446;22122610101100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610007100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="942">
@@ -7842,7 +7845,7 @@
         <v/>
       </c>
       <c r="B942" t="str">
-        <v>06285119000446;22122610007100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610012100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="943">
@@ -7850,7 +7853,7 @@
         <v/>
       </c>
       <c r="B943" t="str">
-        <v>06285119000446;22122610012100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269980100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="944">
@@ -7858,7 +7861,7 @@
         <v/>
       </c>
       <c r="B944" t="str">
-        <v>06285119000446;2212269980100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269992100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="945">
@@ -7866,7 +7869,7 @@
         <v/>
       </c>
       <c r="B945" t="str">
-        <v>06285119000446;2212269992100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610001100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="946">
@@ -7874,7 +7877,7 @@
         <v/>
       </c>
       <c r="B946" t="str">
-        <v>06285119000446;22122610001100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610572100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="947">
@@ -7882,7 +7885,7 @@
         <v/>
       </c>
       <c r="B947" t="str">
-        <v>06285119000446;22122610572100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610586100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="948">
@@ -7890,7 +7893,7 @@
         <v/>
       </c>
       <c r="B948" t="str">
-        <v>06285119000446;22122610586100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610588100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="949">
@@ -7898,7 +7901,7 @@
         <v/>
       </c>
       <c r="B949" t="str">
-        <v>06285119000446;22122610588100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610050100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="950">
@@ -7906,7 +7909,7 @@
         <v/>
       </c>
       <c r="B950" t="str">
-        <v>06285119000446;22122610050100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269941100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="951">
@@ -7914,7 +7917,7 @@
         <v/>
       </c>
       <c r="B951" t="str">
-        <v>06285119000446;2212269941100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610535100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="952">
@@ -7922,7 +7925,7 @@
         <v/>
       </c>
       <c r="B952" t="str">
-        <v>06285119000446;22122610535100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610543100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="953">
@@ -7930,7 +7933,7 @@
         <v/>
       </c>
       <c r="B953" t="str">
-        <v>06285119000446;22122610543100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610592100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="954">
@@ -7938,7 +7941,7 @@
         <v/>
       </c>
       <c r="B954" t="str">
-        <v>06285119000446;22122610592100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610008100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="955">
@@ -7946,7 +7949,7 @@
         <v/>
       </c>
       <c r="B955" t="str">
-        <v>06285119000446;22122610008100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269981100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="956">
@@ -7954,7 +7957,7 @@
         <v/>
       </c>
       <c r="B956" t="str">
-        <v>06285119000446;2212269981100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610039100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="957">
@@ -7962,7 +7965,7 @@
         <v/>
       </c>
       <c r="B957" t="str">
-        <v>06285119000446;22122610039100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610577100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="958">
@@ -7970,7 +7973,7 @@
         <v/>
       </c>
       <c r="B958" t="str">
-        <v>06285119000446;22122610577100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612119100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="959">
@@ -7978,7 +7981,7 @@
         <v/>
       </c>
       <c r="B959" t="str">
-        <v>06285119000446;22122612119100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612154100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="960">
@@ -7986,7 +7989,7 @@
         <v/>
       </c>
       <c r="B960" t="str">
-        <v>06285119000446;22122612154100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612147100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="961">
@@ -7994,7 +7997,7 @@
         <v/>
       </c>
       <c r="B961" t="str">
-        <v>06285119000446;22122612147100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612140100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="962">
@@ -8002,7 +8005,7 @@
         <v/>
       </c>
       <c r="B962" t="str">
-        <v>06285119000446;22122612140100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612133100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="963">
@@ -8010,7 +8013,7 @@
         <v/>
       </c>
       <c r="B963" t="str">
-        <v>06285119000446;22122612133100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612118100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="964">
@@ -8018,7 +8021,7 @@
         <v/>
       </c>
       <c r="B964" t="str">
-        <v>06285119000446;22122612118100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612126100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="965">
@@ -8026,7 +8029,7 @@
         <v/>
       </c>
       <c r="B965" t="str">
-        <v>06285119000446;22122612126100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610578100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="966">
@@ -8034,7 +8037,7 @@
         <v/>
       </c>
       <c r="B966" t="str">
-        <v>06285119000446;22122610578100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610076100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="967">
@@ -8042,7 +8045,7 @@
         <v/>
       </c>
       <c r="B967" t="str">
-        <v>06285119000446;22122610076100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610072100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="968">
@@ -8050,7 +8053,7 @@
         <v/>
       </c>
       <c r="B968" t="str">
-        <v>06285119000446;22122610072100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610071100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="969">
@@ -8058,7 +8061,7 @@
         <v/>
       </c>
       <c r="B969" t="str">
-        <v>06285119000446;22122610071100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269929100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="970">
@@ -8066,7 +8069,7 @@
         <v/>
       </c>
       <c r="B970" t="str">
-        <v>06285119000446;2212269929100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269934100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="971">
@@ -8074,7 +8077,7 @@
         <v/>
       </c>
       <c r="B971" t="str">
-        <v>06285119000446;2212269934100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610538100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="972">
@@ -8082,7 +8085,7 @@
         <v/>
       </c>
       <c r="B972" t="str">
-        <v>06285119000446;22122610538100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610547100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="973">
@@ -8090,7 +8093,7 @@
         <v/>
       </c>
       <c r="B973" t="str">
-        <v>06285119000446;22122610547100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610049100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="974">
@@ -8098,7 +8101,7 @@
         <v/>
       </c>
       <c r="B974" t="str">
-        <v>06285119000446;22122610049100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610546100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="975">
@@ -8106,7 +8109,7 @@
         <v/>
       </c>
       <c r="B975" t="str">
-        <v>06285119000446;22122610546100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269993100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="976">
@@ -8114,7 +8117,7 @@
         <v/>
       </c>
       <c r="B976" t="str">
-        <v>06285119000446;2212269993100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610038100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="977">
@@ -8122,7 +8125,7 @@
         <v/>
       </c>
       <c r="B977" t="str">
-        <v>06285119000446;22122610038100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269833100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="978">
@@ -8130,7 +8133,7 @@
         <v/>
       </c>
       <c r="B978" t="str">
-        <v>06285119000446;2212269833100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269921100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="979">
@@ -8138,7 +8141,7 @@
         <v/>
       </c>
       <c r="B979" t="str">
-        <v>06285119000446;2212269921100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610539100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="980">
@@ -8146,7 +8149,7 @@
         <v/>
       </c>
       <c r="B980" t="str">
-        <v>06285119000446;22122610539100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610087100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="981">
@@ -8154,7 +8157,7 @@
         <v/>
       </c>
       <c r="B981" t="str">
-        <v>06285119000446;22122610087100;11221216;16/12/2024</v>
+        <v>06285119000446;2212269911100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="982">
@@ -8162,7 +8165,7 @@
         <v/>
       </c>
       <c r="B982" t="str">
-        <v>06285119000446;2212269911100;11221216;16/12/2024</v>
+        <v>06285119000446;22122610046100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="983">
@@ -8170,7 +8173,7 @@
         <v/>
       </c>
       <c r="B983" t="str">
-        <v>06285119000446;22122610046100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612108100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="984">
@@ -8178,7 +8181,7 @@
         <v/>
       </c>
       <c r="B984" t="str">
-        <v>06285119000446;22122612108100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612065100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="985">
@@ -8186,7 +8189,7 @@
         <v/>
       </c>
       <c r="B985" t="str">
-        <v>06285119000446;22122612065100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612015100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="986">
@@ -8194,7 +8197,7 @@
         <v/>
       </c>
       <c r="B986" t="str">
-        <v>06285119000446;22122612015100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611954100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="987">
@@ -8202,7 +8205,7 @@
         <v/>
       </c>
       <c r="B987" t="str">
-        <v>06285119000446;22122611954100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612012100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="988">
@@ -8210,7 +8213,7 @@
         <v/>
       </c>
       <c r="B988" t="str">
-        <v>06285119000446;22122612012100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612016100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="989">
@@ -8218,7 +8221,7 @@
         <v/>
       </c>
       <c r="B989" t="str">
-        <v>06285119000446;22122612016100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612060100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="990">
@@ -8226,7 +8229,7 @@
         <v/>
       </c>
       <c r="B990" t="str">
-        <v>06285119000446;22122612060100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611969100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="991">
@@ -8234,7 +8237,7 @@
         <v/>
       </c>
       <c r="B991" t="str">
-        <v>06285119000446;22122611969100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612064100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="992">
@@ -8242,7 +8245,7 @@
         <v/>
       </c>
       <c r="B992" t="str">
-        <v>06285119000446;22122612064100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611962100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="993">
@@ -8250,7 +8253,7 @@
         <v/>
       </c>
       <c r="B993" t="str">
-        <v>06285119000446;22122611962100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612095100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="994">
@@ -8258,7 +8261,7 @@
         <v/>
       </c>
       <c r="B994" t="str">
-        <v>06285119000446;22122612095100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612090100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="995">
@@ -8266,7 +8269,7 @@
         <v/>
       </c>
       <c r="B995" t="str">
-        <v>06285119000446;22122612090100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612083100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="996">
@@ -8274,7 +8277,7 @@
         <v/>
       </c>
       <c r="B996" t="str">
-        <v>06285119000446;22122612083100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612020100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="997">
@@ -8282,7 +8285,7 @@
         <v/>
       </c>
       <c r="B997" t="str">
-        <v>06285119000446;22122612020100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612109100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="998">
@@ -8290,7 +8293,7 @@
         <v/>
       </c>
       <c r="B998" t="str">
-        <v>06285119000446;22122612109100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612096100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="999">
@@ -8298,7 +8301,7 @@
         <v/>
       </c>
       <c r="B999" t="str">
-        <v>06285119000446;22122612096100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612091100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1000">
@@ -8306,7 +8309,7 @@
         <v/>
       </c>
       <c r="B1000" t="str">
-        <v>06285119000446;22122612091100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612084100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1001">
@@ -8314,7 +8317,7 @@
         <v/>
       </c>
       <c r="B1001" t="str">
-        <v>06285119000446;22122612084100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611986100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1002">
@@ -8322,7 +8325,7 @@
         <v/>
       </c>
       <c r="B1002" t="str">
-        <v>06285119000446;22122611986100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611979100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1003">
@@ -8330,7 +8333,7 @@
         <v/>
       </c>
       <c r="B1003" t="str">
-        <v>06285119000446;22122611979100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611999100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1004">
@@ -8338,7 +8341,7 @@
         <v/>
       </c>
       <c r="B1004" t="str">
-        <v>06285119000446;22122611999100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612045100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1005">
@@ -8346,7 +8349,7 @@
         <v/>
       </c>
       <c r="B1005" t="str">
-        <v>06285119000446;22122612045100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612051100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1006">
@@ -8354,7 +8357,7 @@
         <v/>
       </c>
       <c r="B1006" t="str">
-        <v>06285119000446;22122612051100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611972100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1007">
@@ -8362,7 +8365,7 @@
         <v/>
       </c>
       <c r="B1007" t="str">
-        <v>06285119000446;22122611972100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612008100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1008">
@@ -8370,7 +8373,7 @@
         <v/>
       </c>
       <c r="B1008" t="str">
-        <v>06285119000446;22122612008100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612046100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1009">
@@ -8378,7 +8381,7 @@
         <v/>
       </c>
       <c r="B1009" t="str">
-        <v>06285119000446;22122612046100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612054100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1010">
@@ -8386,7 +8389,7 @@
         <v/>
       </c>
       <c r="B1010" t="str">
-        <v>06285119000446;22122612054100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611995100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1011">
@@ -8394,7 +8397,7 @@
         <v/>
       </c>
       <c r="B1011" t="str">
-        <v>06285119000446;22122611995100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611988100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1012">
@@ -8402,7 +8405,7 @@
         <v/>
       </c>
       <c r="B1012" t="str">
-        <v>06285119000446;22122611988100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611956100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1013">
@@ -8410,7 +8413,7 @@
         <v/>
       </c>
       <c r="B1013" t="str">
-        <v>06285119000446;22122611956100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612010100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1014">
@@ -8418,7 +8421,7 @@
         <v/>
       </c>
       <c r="B1014" t="str">
-        <v>06285119000446;22122612010100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612097100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1015">
@@ -8426,7 +8429,7 @@
         <v/>
       </c>
       <c r="B1015" t="str">
-        <v>06285119000446;22122612097100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611966100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1016">
@@ -8434,28 +8437,28 @@
         <v/>
       </c>
       <c r="B1016" t="str">
-        <v>06285119000446;22122611966100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612018100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="str">
         <v/>
       </c>
-      <c r="B1017" t="str">
-        <v>06285119000446;22122612018100;11221216;16/12/2024</v>
-      </c>
     </row>
     <row r="1018">
       <c r="A1018" t="str">
         <v/>
       </c>
+      <c r="B1018" t="str">
+        <v>06285119000446;22122611965100;11221216;16/12/2024</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" t="str">
         <v/>
       </c>
       <c r="B1019" t="str">
-        <v>06285119000446;22122611965100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611958100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1020">
@@ -8463,7 +8466,7 @@
         <v/>
       </c>
       <c r="B1020" t="str">
-        <v>06285119000446;22122611958100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612072100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1021">
@@ -8471,7 +8474,7 @@
         <v/>
       </c>
       <c r="B1021" t="str">
-        <v>06285119000446;22122612072100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611964100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1022">
@@ -8479,7 +8482,7 @@
         <v/>
       </c>
       <c r="B1022" t="str">
-        <v>06285119000446;22122611964100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611973100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1023">
@@ -8487,7 +8490,7 @@
         <v/>
       </c>
       <c r="B1023" t="str">
-        <v>06285119000446;22122611973100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611959100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1024">
@@ -8495,7 +8498,7 @@
         <v/>
       </c>
       <c r="B1024" t="str">
-        <v>06285119000446;22122611959100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612080100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1025">
@@ -8503,7 +8506,7 @@
         <v/>
       </c>
       <c r="B1025" t="str">
-        <v>06285119000446;22122612080100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612066100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1026">
@@ -8511,7 +8514,7 @@
         <v/>
       </c>
       <c r="B1026" t="str">
-        <v>06285119000446;22122612066100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612092100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1027">
@@ -8519,7 +8522,7 @@
         <v/>
       </c>
       <c r="B1027" t="str">
-        <v>06285119000446;22122612092100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612085100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1028">
@@ -8527,7 +8530,7 @@
         <v/>
       </c>
       <c r="B1028" t="str">
-        <v>06285119000446;22122612085100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612022100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1029">
@@ -8535,7 +8538,7 @@
         <v/>
       </c>
       <c r="B1029" t="str">
-        <v>06285119000446;22122612022100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612019100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1030">
@@ -8543,7 +8546,7 @@
         <v/>
       </c>
       <c r="B1030" t="str">
-        <v>06285119000446;22122612019100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612073100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1031">
@@ -8551,7 +8554,7 @@
         <v/>
       </c>
       <c r="B1031" t="str">
-        <v>06285119000446;22122612073100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611980100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1032">
@@ -8559,7 +8562,7 @@
         <v/>
       </c>
       <c r="B1032" t="str">
-        <v>06285119000446;22122611980100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612079100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1033">
@@ -8567,7 +8570,7 @@
         <v/>
       </c>
       <c r="B1033" t="str">
-        <v>06285119000446;22122612079100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612071100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1034">
@@ -8575,7 +8578,7 @@
         <v/>
       </c>
       <c r="B1034" t="str">
-        <v>06285119000446;22122612071100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612078100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1035">
@@ -8583,7 +8586,7 @@
         <v/>
       </c>
       <c r="B1035" t="str">
-        <v>06285119000446;22122612078100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612052100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1036">
@@ -8591,7 +8594,7 @@
         <v/>
       </c>
       <c r="B1036" t="str">
-        <v>06285119000446;22122612052100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611993100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1037">
@@ -8599,7 +8602,7 @@
         <v/>
       </c>
       <c r="B1037" t="str">
-        <v>06285119000446;22122611993100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611985100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1038">
@@ -8607,7 +8610,7 @@
         <v/>
       </c>
       <c r="B1038" t="str">
-        <v>06285119000446;22122611985100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611978100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1039">
@@ -8615,7 +8618,7 @@
         <v/>
       </c>
       <c r="B1039" t="str">
-        <v>06285119000446;22122611978100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611971100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1040">
@@ -8623,7 +8626,7 @@
         <v/>
       </c>
       <c r="B1040" t="str">
-        <v>06285119000446;22122611971100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612011100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1041">
@@ -8631,7 +8634,7 @@
         <v/>
       </c>
       <c r="B1041" t="str">
-        <v>06285119000446;22122612011100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612021100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1042">
@@ -8639,7 +8642,7 @@
         <v/>
       </c>
       <c r="B1042" t="str">
-        <v>06285119000446;22122612021100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612110100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1043">
@@ -8647,7 +8650,7 @@
         <v/>
       </c>
       <c r="B1043" t="str">
-        <v>06285119000446;22122612110100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611992100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1044">
@@ -8655,7 +8658,7 @@
         <v/>
       </c>
       <c r="B1044" t="str">
-        <v>06285119000446;22122611992100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611984100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1045">
@@ -8663,7 +8666,7 @@
         <v/>
       </c>
       <c r="B1045" t="str">
-        <v>06285119000446;22122611984100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611977100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1046">
@@ -8671,7 +8674,7 @@
         <v/>
       </c>
       <c r="B1046" t="str">
-        <v>06285119000446;22122611977100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611970100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1047">
@@ -8679,7 +8682,7 @@
         <v/>
       </c>
       <c r="B1047" t="str">
-        <v>06285119000446;22122611970100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611963100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1048">
@@ -8687,7 +8690,7 @@
         <v/>
       </c>
       <c r="B1048" t="str">
-        <v>06285119000446;22122611963100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611955100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1049">
@@ -8695,7 +8698,7 @@
         <v/>
       </c>
       <c r="B1049" t="str">
-        <v>06285119000446;22122611955100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612009100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1050">
@@ -8703,7 +8706,7 @@
         <v/>
       </c>
       <c r="B1050" t="str">
-        <v>06285119000446;22122612009100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612047100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1051">
@@ -8711,7 +8714,7 @@
         <v/>
       </c>
       <c r="B1051" t="str">
-        <v>06285119000446;22122612047100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612053100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1052">
@@ -8719,7 +8722,7 @@
         <v/>
       </c>
       <c r="B1052" t="str">
-        <v>06285119000446;22122612053100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611994100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1053">
@@ -8727,7 +8730,7 @@
         <v/>
       </c>
       <c r="B1053" t="str">
-        <v>06285119000446;22122611994100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612014100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1054">
@@ -8735,7 +8738,7 @@
         <v/>
       </c>
       <c r="B1054" t="str">
-        <v>06285119000446;22122612014100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611953100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1055">
@@ -8743,7 +8746,7 @@
         <v/>
       </c>
       <c r="B1055" t="str">
-        <v>06285119000446;22122611953100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611961100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1056">
@@ -8751,7 +8754,7 @@
         <v/>
       </c>
       <c r="B1056" t="str">
-        <v>06285119000446;22122611961100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611968100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1057">
@@ -8759,7 +8762,7 @@
         <v/>
       </c>
       <c r="B1057" t="str">
-        <v>06285119000446;22122611968100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611975100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1058">
@@ -8767,7 +8770,7 @@
         <v/>
       </c>
       <c r="B1058" t="str">
-        <v>06285119000446;22122611975100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611982100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1059">
@@ -8775,7 +8778,7 @@
         <v/>
       </c>
       <c r="B1059" t="str">
-        <v>06285119000446;22122611982100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611990100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1060">
@@ -8783,7 +8786,7 @@
         <v/>
       </c>
       <c r="B1060" t="str">
-        <v>06285119000446;22122611990100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612049100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1061">
@@ -8791,7 +8794,7 @@
         <v/>
       </c>
       <c r="B1061" t="str">
-        <v>06285119000446;22122612049100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612043100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1062">
@@ -8799,7 +8802,7 @@
         <v/>
       </c>
       <c r="B1062" t="str">
-        <v>06285119000446;22122612043100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611997100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1063">
@@ -8807,7 +8810,7 @@
         <v/>
       </c>
       <c r="B1063" t="str">
-        <v>06285119000446;22122611997100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612106100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1064">
@@ -8815,7 +8818,7 @@
         <v/>
       </c>
       <c r="B1064" t="str">
-        <v>06285119000446;22122612106100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612100100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1065">
@@ -8823,7 +8826,7 @@
         <v/>
       </c>
       <c r="B1065" t="str">
-        <v>06285119000446;22122612100100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612000100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1066">
@@ -8831,7 +8834,7 @@
         <v/>
       </c>
       <c r="B1066" t="str">
-        <v>06285119000446;22122612000100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612088100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1067">
@@ -8839,7 +8842,7 @@
         <v/>
       </c>
       <c r="B1067" t="str">
-        <v>06285119000446;22122612088100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612026100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1068">
@@ -8847,7 +8850,7 @@
         <v/>
       </c>
       <c r="B1068" t="str">
-        <v>06285119000446;22122612026100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612002100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1069">
@@ -8855,7 +8858,7 @@
         <v/>
       </c>
       <c r="B1069" t="str">
-        <v>06285119000446;22122612002100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612076100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1070">
@@ -8863,7 +8866,7 @@
         <v/>
       </c>
       <c r="B1070" t="str">
-        <v>06285119000446;22122612076100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612069100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1071">
@@ -8871,7 +8874,7 @@
         <v/>
       </c>
       <c r="B1071" t="str">
-        <v>06285119000446;22122612069100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612004100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1072">
@@ -8879,7 +8882,7 @@
         <v/>
       </c>
       <c r="B1072" t="str">
-        <v>06285119000446;22122612004100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612063100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1073">
@@ -8887,7 +8890,7 @@
         <v/>
       </c>
       <c r="B1073" t="str">
-        <v>06285119000446;22122612063100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611996100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1074">
@@ -8895,7 +8898,7 @@
         <v/>
       </c>
       <c r="B1074" t="str">
-        <v>06285119000446;22122611996100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612042100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1075">
@@ -8903,7 +8906,7 @@
         <v/>
       </c>
       <c r="B1075" t="str">
-        <v>06285119000446;22122612042100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612048100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1076">
@@ -8911,7 +8914,7 @@
         <v/>
       </c>
       <c r="B1076" t="str">
-        <v>06285119000446;22122612048100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611989100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1077">
@@ -8919,7 +8922,7 @@
         <v/>
       </c>
       <c r="B1077" t="str">
-        <v>06285119000446;22122611989100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611981100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1078">
@@ -8927,7 +8930,7 @@
         <v/>
       </c>
       <c r="B1078" t="str">
-        <v>06285119000446;22122611981100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611974100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1079">
@@ -8935,7 +8938,7 @@
         <v/>
       </c>
       <c r="B1079" t="str">
-        <v>06285119000446;22122611974100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611967100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1080">
@@ -8943,7 +8946,7 @@
         <v/>
       </c>
       <c r="B1080" t="str">
-        <v>06285119000446;22122611967100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611960100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1081">
@@ -8951,7 +8954,7 @@
         <v/>
       </c>
       <c r="B1081" t="str">
-        <v>06285119000446;22122611960100;11221216;16/12/2024</v>
+        <v>06285119000446;22122611957100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1082">
@@ -8959,7 +8962,7 @@
         <v/>
       </c>
       <c r="B1082" t="str">
-        <v>06285119000446;22122611957100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612013100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1083">
@@ -8967,7 +8970,7 @@
         <v/>
       </c>
       <c r="B1083" t="str">
-        <v>06285119000446;22122612013100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612068100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1084">
@@ -8975,7 +8978,7 @@
         <v/>
       </c>
       <c r="B1084" t="str">
-        <v>06285119000446;22122612068100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612062100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1085">
@@ -8983,7 +8986,7 @@
         <v/>
       </c>
       <c r="B1085" t="str">
-        <v>06285119000446;22122612062100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612006100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1086">
@@ -8991,7 +8994,7 @@
         <v/>
       </c>
       <c r="B1086" t="str">
-        <v>06285119000446;22122612006100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612087100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1087">
@@ -8999,7 +9002,7 @@
         <v/>
       </c>
       <c r="B1087" t="str">
-        <v>06285119000446;22122612087100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612024100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1088">
@@ -9007,7 +9010,7 @@
         <v/>
       </c>
       <c r="B1088" t="str">
-        <v>06285119000446;22122612024100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612082100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1089">
@@ -9015,7 +9018,7 @@
         <v/>
       </c>
       <c r="B1089" t="str">
-        <v>06285119000446;22122612082100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612075100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1090">
@@ -9023,7 +9026,7 @@
         <v/>
       </c>
       <c r="B1090" t="str">
-        <v>06285119000446;22122612075100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612105100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1091">
@@ -9031,7 +9034,7 @@
         <v/>
       </c>
       <c r="B1091" t="str">
-        <v>06285119000446;22122612105100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612099100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1092">
@@ -9039,7 +9042,7 @@
         <v/>
       </c>
       <c r="B1092" t="str">
-        <v>06285119000446;22122612099100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612094100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1093">
@@ -9047,7 +9050,7 @@
         <v/>
       </c>
       <c r="B1093" t="str">
-        <v>06285119000446;22122612094100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612067100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1094">
@@ -9055,7 +9058,7 @@
         <v/>
       </c>
       <c r="B1094" t="str">
-        <v>06285119000446;22122612067100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612061100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1095">
@@ -9063,7 +9066,7 @@
         <v/>
       </c>
       <c r="B1095" t="str">
-        <v>06285119000446;22122612061100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612057100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1096">
@@ -9071,7 +9074,7 @@
         <v/>
       </c>
       <c r="B1096" t="str">
-        <v>06285119000446;22122612057100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612086100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1097">
@@ -9079,7 +9082,7 @@
         <v/>
       </c>
       <c r="B1097" t="str">
-        <v>06285119000446;22122612086100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612023100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1098">
@@ -9087,7 +9090,7 @@
         <v/>
       </c>
       <c r="B1098" t="str">
-        <v>06285119000446;22122612023100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612081100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1099">
@@ -9095,7 +9098,7 @@
         <v/>
       </c>
       <c r="B1099" t="str">
-        <v>06285119000446;22122612081100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612074100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1100">
@@ -9103,7 +9106,7 @@
         <v/>
       </c>
       <c r="B1100" t="str">
-        <v>06285119000446;22122612074100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612104100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1101">
@@ -9111,7 +9114,7 @@
         <v/>
       </c>
       <c r="B1101" t="str">
-        <v>06285119000446;22122612104100;11221216;16/12/2024</v>
+        <v>06285119000446;22122612098100;11221216;16/12/2024</v>
       </c>
     </row>
     <row r="1102">
@@ -9119,20 +9122,12 @@
         <v/>
       </c>
       <c r="B1102" t="str">
-        <v>06285119000446;22122612098100;11221216;16/12/2024</v>
-      </c>
-    </row>
-    <row r="1103">
-      <c r="A1103" t="str">
-        <v/>
-      </c>
-      <c r="B1103" t="str">
         <v>06285119000446;22122612093100;11221216;16/12/2024</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B1103"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B1102"/>
   </ignoredErrors>
 </worksheet>
 </file>